--- a/docs/userapi/UserAPIFormat.xlsx
+++ b/docs/userapi/UserAPIFormat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11740" yWindow="1060" windowWidth="25600" windowHeight="16060" tabRatio="640" activeTab="4"/>
+    <workbookView xWindow="5000" yWindow="1060" windowWidth="25600" windowHeight="16060" tabRatio="640" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="API List" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="resetpwd" sheetId="14" r:id="rId3"/>
     <sheet name="signup" sheetId="15" r:id="rId4"/>
     <sheet name="logout" sheetId="19" r:id="rId5"/>
+    <sheet name="finduser" sheetId="20" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="116">
   <si>
     <t>No</t>
   </si>
@@ -267,24 +268,6 @@
     <t>signup</t>
   </si>
   <si>
-    <t>Like</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>Post Message</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>Follow</t>
-  </si>
-  <si>
-    <t>follow</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -357,6 +340,27 @@
     <t>4.3.3 Status code definitions</t>
   </si>
   <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>5.1 Summary</t>
+  </si>
+  <si>
+    <t>5.2 Request data structure</t>
+  </si>
+  <si>
+    <t>5.3.1 Response format (xml) normal</t>
+  </si>
+  <si>
+    <t>5.3.2 Response format (xml) error</t>
+  </si>
+  <si>
+    <t>5.3.3 Status code definitions</t>
+  </si>
+  <si>
+    <t>Accoding to 5.3.3</t>
+  </si>
+  <si>
     <t>email</t>
   </si>
   <si>
@@ -370,6 +374,33 @@
   </si>
   <si>
     <t>4.</t>
+  </si>
+  <si>
+    <t>logout</t>
+  </si>
+  <si>
+    <t>Find User</t>
+  </si>
+  <si>
+    <t>finduser</t>
+  </si>
+  <si>
+    <t>Keyword</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>a part of mail address of the user use for searching.</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>username (email) of a specific user whose username (email) matched the keyword</t>
   </si>
 </sst>
 </file>
@@ -695,7 +726,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -792,6 +823,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -843,6 +883,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1605,6 +1647,295 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>540026</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>167310</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>629477</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1365526" y="4510710"/>
+          <a:ext cx="9246151" cy="2296490"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>&lt;response lang="vi" xml:lang="vi"&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>    &lt;error&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>        &lt;status&gt;200&lt;/status&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>        &lt;message&gt;&lt;/message&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>    &lt;/error&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>    &lt;users&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>        &lt;user&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>	&lt;username&gt;foo1@mulodo.com&lt;/username&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>       &lt;/user&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック"/>
+            <a:ea typeface="ＭＳ ゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>        &lt;user&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>	&lt;username&gt;foo2@mulodo.com&lt;/username&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>        &lt;/user&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>    &lt;/users&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>&lt;/response&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1927,10 +2258,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2015,10 +2346,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>5</v>
@@ -2032,10 +2363,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>5</v>
@@ -2045,18 +2376,10 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>5</v>
-      </c>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -2169,24 +2492,14 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7" ht="20" customHeight="1">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <hyperlinks>
     <hyperlink ref="B2" location="login!A1" display="Login"/>
     <hyperlink ref="B3" location="resetpwd!A1" display="Reset Password"/>
     <hyperlink ref="B4" location="signup!A1" display="Sign Up"/>
-    <hyperlink ref="B5" location="like!A1" display="Like"/>
-    <hyperlink ref="B6" location="post!A1" display="Post Message"/>
-    <hyperlink ref="B7" location="follow!A1" display="Follow"/>
+    <hyperlink ref="B5" location="logout!A1" display="Logout"/>
+    <hyperlink ref="B6" location="finduser!A1" display="Find User"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2202,7 +2515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -2285,15 +2598,15 @@
       <c r="B4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="69"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="72"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -2306,15 +2619,15 @@
       <c r="B5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="69"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="72"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -2327,15 +2640,15 @@
       <c r="B6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="69"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="72"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -2348,15 +2661,15 @@
       <c r="B7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="69"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="72"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -2421,19 +2734,19 @@
     </row>
     <row r="11" spans="1:15" ht="20" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="67"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -2462,11 +2775,11 @@
       <c r="I12" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="64" t="s">
+      <c r="J12" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -2475,10 +2788,10 @@
       <c r="A13" s="1"/>
       <c r="B13" s="42"/>
       <c r="C13" s="14" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>52</v>
@@ -2495,11 +2808,11 @@
       <c r="I13" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="58" t="s">
+      <c r="J13" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -2528,11 +2841,11 @@
       <c r="I14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="58" t="s">
+      <c r="J14" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -2556,11 +2869,11 @@
     </row>
     <row r="16" spans="1:15" s="19" customFormat="1" ht="20" customHeight="1">
       <c r="A16" s="11"/>
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
       <c r="E16" s="17"/>
       <c r="F16" s="18"/>
       <c r="G16" s="17"/>
@@ -2575,12 +2888,12 @@
     </row>
     <row r="17" spans="1:15" s="23" customFormat="1" ht="20" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="61"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="64"/>
       <c r="F17" s="22" t="s">
         <v>21</v>
       </c>
@@ -2769,10 +3082,10 @@
       <c r="A23" s="1"/>
       <c r="B23" s="31"/>
       <c r="C23" s="32"/>
-      <c r="D23" s="68" t="s">
+      <c r="D23" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="69"/>
+      <c r="E23" s="72"/>
       <c r="F23" s="14" t="s">
         <v>57</v>
       </c>
@@ -2936,11 +3249,11 @@
     </row>
     <row r="32" spans="1:15" ht="20" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -2955,12 +3268,12 @@
     </row>
     <row r="33" spans="1:15" ht="20" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="61"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="64"/>
       <c r="F33" s="22" t="s">
         <v>21</v>
       </c>
@@ -3164,11 +3477,11 @@
     </row>
     <row r="40" spans="1:15" ht="20" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="62" t="s">
+      <c r="B40" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -3186,10 +3499,10 @@
       <c r="B41" s="38">
         <v>200</v>
       </c>
-      <c r="C41" s="68" t="s">
+      <c r="C41" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="69"/>
+      <c r="D41" s="72"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -3207,10 +3520,10 @@
       <c r="B42" s="38">
         <v>401</v>
       </c>
-      <c r="C42" s="68" t="s">
+      <c r="C42" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="D42" s="69"/>
+      <c r="D42" s="72"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -3228,10 +3541,10 @@
       <c r="B43" s="45">
         <v>402</v>
       </c>
-      <c r="C43" s="68" t="s">
+      <c r="C43" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="69"/>
+      <c r="D43" s="72"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -3249,10 +3562,10 @@
       <c r="B44" s="39">
         <v>500</v>
       </c>
-      <c r="C44" s="70" t="s">
+      <c r="C44" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="71"/>
+      <c r="D44" s="74"/>
       <c r="E44" s="34"/>
       <c r="F44" s="34"/>
       <c r="G44" s="34"/>
@@ -4207,7 +4520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -4233,7 +4546,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="49" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>67</v>
@@ -4252,7 +4565,7 @@
     <row r="3" spans="1:12">
       <c r="A3" s="1"/>
       <c r="B3" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="1"/>
@@ -4270,15 +4583,15 @@
       <c r="B4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="69"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="72"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -4288,15 +4601,15 @@
       <c r="B5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="69"/>
+      <c r="C5" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="72"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -4306,15 +4619,15 @@
       <c r="B6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="69"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="72"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -4324,15 +4637,15 @@
       <c r="B7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="69"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="72"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -4354,7 +4667,7 @@
     <row r="9" spans="1:12">
       <c r="A9" s="1"/>
       <c r="B9" s="12" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="1"/>
@@ -4385,19 +4698,19 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1"/>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="67"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1"/>
@@ -4423,20 +4736,20 @@
       <c r="I12" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="64" t="s">
+      <c r="J12" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
     </row>
     <row r="13" spans="1:12" ht="18">
       <c r="A13" s="1"/>
       <c r="B13" s="43"/>
       <c r="C13" s="14" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>52</v>
@@ -4453,11 +4766,11 @@
       <c r="I13" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="58" t="s">
+      <c r="J13" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1"/>
@@ -4475,11 +4788,11 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="11"/>
-      <c r="B15" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
+      <c r="B15" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
       <c r="E15" s="17"/>
       <c r="F15" s="18"/>
       <c r="G15" s="17"/>
@@ -4491,12 +4804,12 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="21"/>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="61"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="64"/>
       <c r="F16" s="51" t="s">
         <v>21</v>
       </c>
@@ -4667,10 +4980,10 @@
       <c r="A22" s="1"/>
       <c r="B22" s="31"/>
       <c r="C22" s="32"/>
-      <c r="D22" s="68" t="s">
+      <c r="D22" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="69"/>
+      <c r="E22" s="72"/>
       <c r="F22" s="14" t="s">
         <v>57</v>
       </c>
@@ -4807,11 +5120,11 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1"/>
-      <c r="B31" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
+      <c r="B31" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -4823,12 +5136,12 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1"/>
-      <c r="B32" s="59" t="s">
+      <c r="B32" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="61"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="64"/>
       <c r="F32" s="51" t="s">
         <v>21</v>
       </c>
@@ -4962,7 +5275,7 @@
         <v>3</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="18">
@@ -5011,11 +5324,11 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="1"/>
-      <c r="B39" s="62" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
+      <c r="B39" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -5030,10 +5343,10 @@
       <c r="B40" s="50">
         <v>200</v>
       </c>
-      <c r="C40" s="68" t="s">
+      <c r="C40" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="69"/>
+      <c r="D40" s="72"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -5048,10 +5361,10 @@
       <c r="B41" s="50">
         <v>401</v>
       </c>
-      <c r="C41" s="68" t="s">
+      <c r="C41" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="D41" s="69"/>
+      <c r="D41" s="72"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -5066,10 +5379,10 @@
       <c r="B42" s="50">
         <v>402</v>
       </c>
-      <c r="C42" s="68" t="s">
+      <c r="C42" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="D42" s="69"/>
+      <c r="D42" s="72"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -5084,10 +5397,10 @@
       <c r="B43" s="39">
         <v>500</v>
       </c>
-      <c r="C43" s="70" t="s">
+      <c r="C43" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="71"/>
+      <c r="D43" s="74"/>
       <c r="E43" s="34"/>
       <c r="F43" s="34"/>
       <c r="G43" s="34"/>
@@ -5136,7 +5449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -5162,7 +5475,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="49" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>69</v>
@@ -5181,7 +5494,7 @@
     <row r="3" spans="1:12">
       <c r="A3" s="1"/>
       <c r="B3" s="11" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="1"/>
@@ -5199,15 +5512,15 @@
       <c r="B4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="69"/>
+      <c r="C4" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="72"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -5217,15 +5530,15 @@
       <c r="B5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="68" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="69"/>
+      <c r="C5" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="72"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -5235,15 +5548,15 @@
       <c r="B6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="69"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="72"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -5253,15 +5566,15 @@
       <c r="B7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="69"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="72"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -5283,7 +5596,7 @@
     <row r="9" spans="1:12">
       <c r="A9" s="1"/>
       <c r="B9" s="12" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="1"/>
@@ -5314,19 +5627,19 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1"/>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="67"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1"/>
@@ -5352,20 +5665,20 @@
       <c r="I12" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="64" t="s">
+      <c r="J12" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
     </row>
     <row r="13" spans="1:12" ht="18">
       <c r="A13" s="1"/>
       <c r="B13" s="42"/>
       <c r="C13" s="14" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>52</v>
@@ -5382,11 +5695,11 @@
       <c r="I13" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="58" t="s">
+      <c r="J13" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
     </row>
     <row r="14" spans="1:12" ht="18">
       <c r="A14" s="1"/>
@@ -5412,11 +5725,11 @@
       <c r="I14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="58" t="s">
+      <c r="J14" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
     </row>
     <row r="15" spans="1:12" ht="18">
       <c r="A15" s="1"/>
@@ -5434,11 +5747,11 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="11"/>
-      <c r="B16" s="65" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
+      <c r="B16" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
       <c r="E16" s="17"/>
       <c r="F16" s="18"/>
       <c r="G16" s="17"/>
@@ -5450,12 +5763,12 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="21"/>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="61"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="64"/>
       <c r="F17" s="51" t="s">
         <v>21</v>
       </c>
@@ -5626,10 +5939,10 @@
       <c r="A23" s="1"/>
       <c r="B23" s="31"/>
       <c r="C23" s="32"/>
-      <c r="D23" s="68" t="s">
+      <c r="D23" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="69"/>
+      <c r="E23" s="72"/>
       <c r="F23" s="14" t="s">
         <v>57</v>
       </c>
@@ -5766,11 +6079,11 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1"/>
-      <c r="B32" s="62" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
+      <c r="B32" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -5782,12 +6095,12 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1"/>
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="61"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="64"/>
       <c r="F33" s="51" t="s">
         <v>21</v>
       </c>
@@ -5921,7 +6234,7 @@
         <v>3</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="18">
@@ -5970,11 +6283,11 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="1"/>
-      <c r="B40" s="62" t="s">
-        <v>93</v>
-      </c>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
+      <c r="B40" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -5989,10 +6302,10 @@
       <c r="B41" s="50">
         <v>200</v>
       </c>
-      <c r="C41" s="68" t="s">
+      <c r="C41" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="69"/>
+      <c r="D41" s="72"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -6007,10 +6320,10 @@
       <c r="B42" s="50">
         <v>401</v>
       </c>
-      <c r="C42" s="68" t="s">
+      <c r="C42" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="D42" s="69"/>
+      <c r="D42" s="72"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -6025,10 +6338,10 @@
       <c r="B43" s="50">
         <v>402</v>
       </c>
-      <c r="C43" s="68" t="s">
+      <c r="C43" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="69"/>
+      <c r="D43" s="72"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -6043,10 +6356,10 @@
       <c r="B44" s="39">
         <v>500</v>
       </c>
-      <c r="C44" s="70" t="s">
+      <c r="C44" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="71"/>
+      <c r="D44" s="74"/>
       <c r="E44" s="34"/>
       <c r="F44" s="34"/>
       <c r="G44" s="34"/>
@@ -6096,7 +6409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C21" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
@@ -6136,10 +6449,10 @@
     </row>
     <row r="2" spans="1:15" ht="20" customHeight="1">
       <c r="A2" s="49" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -6158,7 +6471,7 @@
     <row r="3" spans="1:15" ht="20" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="1"/>
@@ -6179,15 +6492,15 @@
       <c r="B4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="68" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="69"/>
+      <c r="C4" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="72"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -6200,15 +6513,15 @@
       <c r="B5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="68" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="69"/>
+      <c r="C5" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="72"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -6221,15 +6534,15 @@
       <c r="B6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="69"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="72"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -6242,15 +6555,15 @@
       <c r="B7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="69"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="72"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -6278,7 +6591,7 @@
     <row r="9" spans="1:15" ht="20" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="12" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="1"/>
@@ -6315,19 +6628,19 @@
     </row>
     <row r="11" spans="1:15" ht="20" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="67"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -6335,32 +6648,32 @@
     <row r="12" spans="1:15" ht="20" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="41"/>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="57" t="s">
+      <c r="F12" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="57" t="s">
+      <c r="G12" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="57" t="s">
+      <c r="H12" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="57" t="s">
+      <c r="I12" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="64" t="s">
+      <c r="J12" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -6377,9 +6690,9 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="46"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -6396,9 +6709,9 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -6422,11 +6735,11 @@
     </row>
     <row r="16" spans="1:15" s="19" customFormat="1" ht="20" customHeight="1">
       <c r="A16" s="11"/>
-      <c r="B16" s="65" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
+      <c r="B16" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
       <c r="E16" s="17"/>
       <c r="F16" s="18"/>
       <c r="G16" s="17"/>
@@ -6441,31 +6754,31 @@
     </row>
     <row r="17" spans="1:15" s="23" customFormat="1" ht="20" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="57" t="s">
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="57" t="s">
+      <c r="G17" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="57" t="s">
+      <c r="H17" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="57" t="s">
+      <c r="I17" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="J17" s="57" t="s">
+      <c r="J17" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="57" t="s">
+      <c r="K17" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="57" t="s">
+      <c r="L17" s="60" t="s">
         <v>20</v>
       </c>
       <c r="M17" s="21"/>
@@ -6635,10 +6948,10 @@
       <c r="A23" s="1"/>
       <c r="B23" s="31"/>
       <c r="C23" s="32"/>
-      <c r="D23" s="68" t="s">
+      <c r="D23" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="69"/>
+      <c r="E23" s="72"/>
       <c r="F23" s="14" t="s">
         <v>57</v>
       </c>
@@ -6802,11 +7115,11 @@
     </row>
     <row r="32" spans="1:15" ht="20" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
+      <c r="B32" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -6821,31 +7134,31 @@
     </row>
     <row r="33" spans="1:15" ht="20" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="57" t="s">
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="57" t="s">
+      <c r="G33" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="57" t="s">
+      <c r="H33" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="I33" s="57" t="s">
+      <c r="I33" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="J33" s="57" t="s">
+      <c r="J33" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="K33" s="57" t="s">
+      <c r="K33" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="L33" s="57" t="s">
+      <c r="L33" s="60" t="s">
         <v>20</v>
       </c>
       <c r="M33" s="1"/>
@@ -7030,11 +7343,11 @@
     </row>
     <row r="40" spans="1:15" ht="20" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="62" t="s">
-        <v>100</v>
-      </c>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
+      <c r="B40" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -7049,13 +7362,13 @@
     </row>
     <row r="41" spans="1:15" ht="20" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="56">
+      <c r="B41" s="59">
         <v>200</v>
       </c>
-      <c r="C41" s="68" t="s">
+      <c r="C41" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="69"/>
+      <c r="D41" s="72"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -7070,13 +7383,13 @@
     </row>
     <row r="42" spans="1:15" ht="20" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="56">
+      <c r="B42" s="59">
         <v>402</v>
       </c>
-      <c r="C42" s="68" t="s">
-        <v>104</v>
-      </c>
-      <c r="D42" s="69"/>
+      <c r="C42" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="72"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -8019,4 +8332,1017 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
+      <selection activeCell="M13" sqref="M12:M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" customWidth="1"/>
+    <col min="12" max="12" width="40.33203125" customWidth="1"/>
+    <col min="13" max="13" width="74.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1"/>
+      <c r="B3" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1"/>
+      <c r="B4" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1"/>
+      <c r="B5" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1"/>
+      <c r="B6" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1"/>
+      <c r="B7" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1"/>
+      <c r="B9" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1"/>
+      <c r="B10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1"/>
+      <c r="B11" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="70"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+    </row>
+    <row r="13" spans="1:13" ht="18">
+      <c r="A13" s="1"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="5">
+        <v>254</v>
+      </c>
+      <c r="I13" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="11"/>
+      <c r="B15" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="11"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="21"/>
+      <c r="B16" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1"/>
+      <c r="B17" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" s="5">
+        <v>1</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" s="5">
+        <v>1</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M19" s="28"/>
+    </row>
+    <row r="20" spans="1:13" ht="18">
+      <c r="A20" s="1"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="76"/>
+      <c r="G20" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="5">
+        <v>1</v>
+      </c>
+      <c r="K20" s="5">
+        <v>3</v>
+      </c>
+      <c r="L20" s="5">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="18">
+      <c r="A21" s="1"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="76"/>
+      <c r="G21" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" s="5">
+        <v>1</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="18">
+      <c r="A22" s="1"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" s="5">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L22" s="5">
+        <v>254</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="1"/>
+      <c r="B36" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="1"/>
+      <c r="B37" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="J37" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37" s="60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="1"/>
+      <c r="B38" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L38" s="3"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="4"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="26"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="4"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="24"/>
+      <c r="F40" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L40" s="28"/>
+    </row>
+    <row r="41" spans="1:12" ht="18">
+      <c r="A41" s="4"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="I41" s="5">
+        <v>1</v>
+      </c>
+      <c r="J41" s="5">
+        <v>3</v>
+      </c>
+      <c r="K41" s="5">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="18">
+      <c r="A42" s="4"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="I42" s="5">
+        <v>1</v>
+      </c>
+      <c r="J42" s="5">
+        <v>0</v>
+      </c>
+      <c r="K42" s="5">
+        <v>254</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="4"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="1"/>
+      <c r="B44" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="65"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="1"/>
+      <c r="B45" s="59">
+        <v>200</v>
+      </c>
+      <c r="C45" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="72"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="1"/>
+      <c r="B46" s="59">
+        <v>401</v>
+      </c>
+      <c r="C46" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" s="72"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="1"/>
+      <c r="B47" s="59">
+        <v>402</v>
+      </c>
+      <c r="C47" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="72"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="34"/>
+      <c r="B48" s="39">
+        <v>500</v>
+      </c>
+      <c r="C48" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="74"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="J11:L11"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I13" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/docs/userapi/UserAPIFormat.xlsx
+++ b/docs/userapi/UserAPIFormat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5000" yWindow="1060" windowWidth="25600" windowHeight="16060" tabRatio="640" activeTab="5"/>
+    <workbookView xWindow="5000" yWindow="1060" windowWidth="25600" windowHeight="16060" tabRatio="640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="API List" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="logout" sheetId="19" r:id="rId5"/>
     <sheet name="finduser" sheetId="20" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="116">
   <si>
     <t>No</t>
   </si>
@@ -838,6 +838,23 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -868,23 +885,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1137,13 +1137,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>540026</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>167311</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>629477</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>110435</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1278,21 +1278,6 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>    &lt;token&gt;346583hfh57ty4ig4&lt;/token&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
             <a:t>&lt;/response&gt;</a:t>
           </a:r>
         </a:p>
@@ -1309,13 +1294,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>540026</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>167311</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>629477</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>110435</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1481,13 +1466,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>540026</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>167311</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>629477</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>110435</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1608,21 +1593,6 @@
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
             <a:t>    &lt;/error&gt;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>    &lt;token&gt;346583hfh57ty4ig4&lt;/token&gt;</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2260,7 +2230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B2" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -2515,7 +2485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -2598,15 +2568,15 @@
       <c r="B4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="72"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="64"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -2619,15 +2589,15 @@
       <c r="B5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="72"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="64"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -2640,15 +2610,15 @@
       <c r="B6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="72"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="64"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -2661,15 +2631,15 @@
       <c r="B7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="72"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="64"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -2734,19 +2704,19 @@
     </row>
     <row r="11" spans="1:15" ht="20" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="70"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -2775,11 +2745,11 @@
       <c r="I12" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="67" t="s">
+      <c r="J12" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -2808,11 +2778,11 @@
       <c r="I13" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="61" t="s">
+      <c r="J13" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -2841,11 +2811,11 @@
       <c r="I14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="61" t="s">
+      <c r="J14" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -2869,11 +2839,11 @@
     </row>
     <row r="16" spans="1:15" s="19" customFormat="1" ht="20" customHeight="1">
       <c r="A16" s="11"/>
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
       <c r="E16" s="17"/>
       <c r="F16" s="18"/>
       <c r="G16" s="17"/>
@@ -2888,12 +2858,12 @@
     </row>
     <row r="17" spans="1:15" s="23" customFormat="1" ht="20" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="64"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="71"/>
       <c r="F17" s="22" t="s">
         <v>21</v>
       </c>
@@ -3082,10 +3052,10 @@
       <c r="A23" s="1"/>
       <c r="B23" s="31"/>
       <c r="C23" s="32"/>
-      <c r="D23" s="71" t="s">
+      <c r="D23" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="72"/>
+      <c r="E23" s="64"/>
       <c r="F23" s="14" t="s">
         <v>57</v>
       </c>
@@ -3249,11 +3219,11 @@
     </row>
     <row r="32" spans="1:15" ht="20" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="65" t="s">
+      <c r="B32" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -3268,12 +3238,12 @@
     </row>
     <row r="33" spans="1:15" ht="20" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="62" t="s">
+      <c r="B33" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="64"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="71"/>
       <c r="F33" s="22" t="s">
         <v>21</v>
       </c>
@@ -3477,11 +3447,11 @@
     </row>
     <row r="40" spans="1:15" ht="20" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="65" t="s">
+      <c r="B40" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="72"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -3499,10 +3469,10 @@
       <c r="B41" s="38">
         <v>200</v>
       </c>
-      <c r="C41" s="71" t="s">
+      <c r="C41" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="72"/>
+      <c r="D41" s="64"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -3520,10 +3490,10 @@
       <c r="B42" s="38">
         <v>401</v>
       </c>
-      <c r="C42" s="71" t="s">
+      <c r="C42" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="D42" s="72"/>
+      <c r="D42" s="64"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -3541,10 +3511,10 @@
       <c r="B43" s="45">
         <v>402</v>
       </c>
-      <c r="C43" s="71" t="s">
+      <c r="C43" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="72"/>
+      <c r="D43" s="64"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -3562,10 +3532,10 @@
       <c r="B44" s="39">
         <v>500</v>
       </c>
-      <c r="C44" s="73" t="s">
+      <c r="C44" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="74"/>
+      <c r="D44" s="66"/>
       <c r="E44" s="34"/>
       <c r="F44" s="34"/>
       <c r="G44" s="34"/>
@@ -4481,14 +4451,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C43:D43"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B40:D40"/>
@@ -4500,6 +4462,14 @@
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D23:E23"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C43:D43"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <hyperlinks>
@@ -4518,10 +4488,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4583,15 +4553,15 @@
       <c r="B4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="72"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="64"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -4601,15 +4571,15 @@
       <c r="B5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="72"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="64"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -4619,15 +4589,15 @@
       <c r="B6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="72"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="64"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -4637,15 +4607,15 @@
       <c r="B7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="72"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="64"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -4698,19 +4668,19 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1"/>
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="70"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1"/>
@@ -4736,11 +4706,11 @@
       <c r="I12" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="67" t="s">
+      <c r="J12" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
     </row>
     <row r="13" spans="1:12" ht="18">
       <c r="A13" s="1"/>
@@ -4766,11 +4736,11 @@
       <c r="I13" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="61" t="s">
+      <c r="J13" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1"/>
@@ -4788,11 +4758,11 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="11"/>
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
       <c r="E15" s="17"/>
       <c r="F15" s="18"/>
       <c r="G15" s="17"/>
@@ -4804,12 +4774,12 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="21"/>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="64"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="71"/>
       <c r="F16" s="51" t="s">
         <v>21</v>
       </c>
@@ -4948,10 +4918,10 @@
     </row>
     <row r="21" spans="1:12" ht="18">
       <c r="A21" s="1"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="30" t="s">
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="29" t="s">
         <v>46</v>
       </c>
       <c r="F21" s="14" t="s">
@@ -4976,37 +4946,25 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="18">
+    <row r="22" spans="1:12">
       <c r="A22" s="1"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="72"/>
-      <c r="F22" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H22" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="I22" s="5">
-        <v>1</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K22" s="5">
-        <v>254</v>
-      </c>
-      <c r="L22" s="3"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -5020,9 +4978,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -5106,9 +5062,11 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="B30" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -5120,60 +5078,72 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1"/>
-      <c r="B31" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
+      <c r="B31" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="51" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1"/>
-      <c r="B32" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="J32" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="K32" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="L32" s="51" t="s">
-        <v>20</v>
-      </c>
+      <c r="B32" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L32" s="3"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="1"/>
-      <c r="B33" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="26"/>
       <c r="E33" s="24"/>
-      <c r="F33" s="5" t="s">
-        <v>41</v>
+      <c r="F33" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>41</v>
@@ -5195,13 +5165,13 @@
     <row r="34" spans="1:12">
       <c r="A34" s="4"/>
       <c r="B34" s="13"/>
-      <c r="C34" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="26"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="25" t="s">
+        <v>51</v>
+      </c>
       <c r="E34" s="24"/>
       <c r="F34" s="14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>41</v>
@@ -5218,46 +5188,48 @@
       <c r="K34" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="L34" s="28"/>
+    </row>
+    <row r="35" spans="1:12" ht="18">
       <c r="A35" s="4"/>
       <c r="B35" s="13"/>
       <c r="C35" s="27"/>
-      <c r="D35" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E35" s="24"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="29" t="s">
+        <v>45</v>
+      </c>
       <c r="F35" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L35" s="28"/>
+        <v>24</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="I35" s="5">
+        <v>1</v>
+      </c>
+      <c r="J35" s="5">
+        <v>3</v>
+      </c>
+      <c r="K35" s="5">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="36" spans="1:12" ht="18">
       <c r="A36" s="4"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
       <c r="E36" s="29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>25</v>
@@ -5269,50 +5241,36 @@
         <v>1</v>
       </c>
       <c r="J36" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K36" s="5">
-        <v>3</v>
+        <v>254</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="18">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="4"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H37" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="I37" s="5">
-        <v>1</v>
-      </c>
-      <c r="J37" s="5">
-        <v>0</v>
-      </c>
-      <c r="K37" s="5">
-        <v>254</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="4"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -5324,11 +5282,13 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="1"/>
-      <c r="B39" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
+      <c r="B39" s="50">
+        <v>200</v>
+      </c>
+      <c r="C39" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="64"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -5341,12 +5301,12 @@
     <row r="40" spans="1:12">
       <c r="A40" s="1"/>
       <c r="B40" s="50">
-        <v>200</v>
-      </c>
-      <c r="C40" s="71" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" s="72"/>
+        <v>401</v>
+      </c>
+      <c r="C40" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="64"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -5359,12 +5319,12 @@
     <row r="41" spans="1:12">
       <c r="A41" s="1"/>
       <c r="B41" s="50">
-        <v>401</v>
-      </c>
-      <c r="C41" s="71" t="s">
-        <v>65</v>
-      </c>
-      <c r="D41" s="72"/>
+        <v>402</v>
+      </c>
+      <c r="C41" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="64"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -5375,61 +5335,42 @@
       <c r="L41" s="1"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="1"/>
-      <c r="B42" s="50">
-        <v>402</v>
-      </c>
-      <c r="C42" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="D42" s="72"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="34"/>
-      <c r="B43" s="39">
+      <c r="A42" s="34"/>
+      <c r="B42" s="39">
         <v>500</v>
       </c>
-      <c r="C43" s="73" t="s">
+      <c r="C42" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="74"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="17">
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:E16"/>
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="C6:I6"/>
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I13" r:id="rId1"/>
@@ -5447,10 +5388,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B22" sqref="B22:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5512,15 +5453,15 @@
       <c r="B4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="72"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="64"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -5530,15 +5471,15 @@
       <c r="B5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="72"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="64"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -5548,15 +5489,15 @@
       <c r="B6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="72"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="64"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -5566,15 +5507,15 @@
       <c r="B7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="72"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="64"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -5627,19 +5568,19 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1"/>
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="70"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1"/>
@@ -5665,11 +5606,11 @@
       <c r="I12" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="67" t="s">
+      <c r="J12" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
     </row>
     <row r="13" spans="1:12" ht="18">
       <c r="A13" s="1"/>
@@ -5695,11 +5636,11 @@
       <c r="I13" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="61" t="s">
+      <c r="J13" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
     </row>
     <row r="14" spans="1:12" ht="18">
       <c r="A14" s="1"/>
@@ -5725,11 +5666,11 @@
       <c r="I14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="61" t="s">
+      <c r="J14" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
     </row>
     <row r="15" spans="1:12" ht="18">
       <c r="A15" s="1"/>
@@ -5747,11 +5688,11 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="11"/>
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
       <c r="E16" s="17"/>
       <c r="F16" s="18"/>
       <c r="G16" s="17"/>
@@ -5763,12 +5704,12 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="21"/>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="64"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="71"/>
       <c r="F17" s="51" t="s">
         <v>21</v>
       </c>
@@ -5907,10 +5848,10 @@
     </row>
     <row r="22" spans="1:12" ht="18">
       <c r="A22" s="1"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="30" t="s">
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="29" t="s">
         <v>46</v>
       </c>
       <c r="F22" s="14" t="s">
@@ -5935,37 +5876,25 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="18">
+    <row r="23" spans="1:12">
       <c r="A23" s="1"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="72"/>
-      <c r="F23" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H23" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="I23" s="5">
-        <v>1</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K23" s="5">
-        <v>254</v>
-      </c>
-      <c r="L23" s="3"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -5979,9 +5908,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -6065,9 +5992,11 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="B31" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -6079,60 +6008,72 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1"/>
-      <c r="B32" s="65" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
+      <c r="B32" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="51" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1"/>
-      <c r="B33" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="J33" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="K33" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="L33" s="51" t="s">
-        <v>20</v>
-      </c>
+      <c r="B33" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L33" s="3"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="1"/>
-      <c r="B34" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="26"/>
       <c r="E34" s="24"/>
-      <c r="F34" s="5" t="s">
-        <v>41</v>
+      <c r="F34" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>41</v>
@@ -6154,13 +6095,13 @@
     <row r="35" spans="1:12">
       <c r="A35" s="4"/>
       <c r="B35" s="13"/>
-      <c r="C35" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="26"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="25" t="s">
+        <v>51</v>
+      </c>
       <c r="E35" s="24"/>
       <c r="F35" s="14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>41</v>
@@ -6177,46 +6118,48 @@
       <c r="K35" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="L35" s="28"/>
+    </row>
+    <row r="36" spans="1:12" ht="18">
       <c r="A36" s="4"/>
       <c r="B36" s="13"/>
       <c r="C36" s="27"/>
-      <c r="D36" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E36" s="24"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="29" t="s">
+        <v>45</v>
+      </c>
       <c r="F36" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L36" s="28"/>
+        <v>24</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="I36" s="5">
+        <v>1</v>
+      </c>
+      <c r="J36" s="5">
+        <v>3</v>
+      </c>
+      <c r="K36" s="5">
+        <v>3</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="37" spans="1:12" ht="18">
       <c r="A37" s="4"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
       <c r="E37" s="29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>25</v>
@@ -6228,50 +6171,36 @@
         <v>1</v>
       </c>
       <c r="J37" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K37" s="5">
-        <v>3</v>
+        <v>254</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="18">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="4"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H38" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="I38" s="5">
-        <v>1</v>
-      </c>
-      <c r="J38" s="5">
-        <v>0</v>
-      </c>
-      <c r="K38" s="5">
-        <v>254</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="4"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="A39" s="1"/>
+      <c r="B39" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -6283,11 +6212,13 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="1"/>
-      <c r="B40" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
+      <c r="B40" s="50">
+        <v>200</v>
+      </c>
+      <c r="C40" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="64"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -6300,12 +6231,12 @@
     <row r="41" spans="1:12">
       <c r="A41" s="1"/>
       <c r="B41" s="50">
-        <v>200</v>
-      </c>
-      <c r="C41" s="71" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" s="72"/>
+        <v>401</v>
+      </c>
+      <c r="C41" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="64"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -6318,12 +6249,12 @@
     <row r="42" spans="1:12">
       <c r="A42" s="1"/>
       <c r="B42" s="50">
-        <v>401</v>
-      </c>
-      <c r="C42" s="71" t="s">
-        <v>65</v>
-      </c>
-      <c r="D42" s="72"/>
+        <v>402</v>
+      </c>
+      <c r="C42" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="64"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -6334,62 +6265,43 @@
       <c r="L42" s="1"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="1"/>
-      <c r="B43" s="50">
-        <v>402</v>
-      </c>
-      <c r="C43" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="D43" s="72"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="34"/>
-      <c r="B44" s="39">
+      <c r="A43" s="34"/>
+      <c r="B43" s="39">
         <v>500</v>
       </c>
-      <c r="C44" s="73" t="s">
+      <c r="C43" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="74"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="34"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="18">
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="C6:I6"/>
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I13" r:id="rId1"/>
@@ -6407,10 +6319,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O95"/>
+  <dimension ref="A1:O94"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C21" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6492,15 +6404,15 @@
       <c r="B4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="72"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="64"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -6513,15 +6425,15 @@
       <c r="B5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="72"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="64"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -6534,15 +6446,15 @@
       <c r="B6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="72"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="64"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -6555,15 +6467,15 @@
       <c r="B7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="72"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="64"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -6628,19 +6540,19 @@
     </row>
     <row r="11" spans="1:15" ht="20" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="70"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -6669,11 +6581,11 @@
       <c r="I12" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="67" t="s">
+      <c r="J12" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -6690,9 +6602,9 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="46"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -6709,9 +6621,9 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -6735,11 +6647,11 @@
     </row>
     <row r="16" spans="1:15" s="19" customFormat="1" ht="20" customHeight="1">
       <c r="A16" s="11"/>
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
       <c r="E16" s="17"/>
       <c r="F16" s="18"/>
       <c r="G16" s="17"/>
@@ -6754,12 +6666,12 @@
     </row>
     <row r="17" spans="1:15" s="23" customFormat="1" ht="20" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="64"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="71"/>
       <c r="F17" s="60" t="s">
         <v>21</v>
       </c>
@@ -6913,10 +6825,10 @@
     </row>
     <row r="22" spans="1:15" ht="20" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="30" t="s">
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="29" t="s">
         <v>46</v>
       </c>
       <c r="F22" s="14" t="s">
@@ -6946,38 +6858,26 @@
     </row>
     <row r="23" spans="1:15" ht="20" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="72"/>
-      <c r="F23" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H23" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="I23" s="5">
-        <v>1</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K23" s="5">
-        <v>254</v>
-      </c>
-      <c r="L23" s="3"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:15" ht="20" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -6994,9 +6894,7 @@
     </row>
     <row r="25" spans="1:15" ht="20" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -7098,9 +6996,11 @@
     </row>
     <row r="31" spans="1:15" ht="20" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="B31" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -7115,66 +7015,78 @@
     </row>
     <row r="32" spans="1:15" ht="20" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="65" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
+      <c r="B32" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="60" t="s">
+        <v>20</v>
+      </c>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
     <row r="33" spans="1:15" ht="20" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="J33" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="K33" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="L33" s="60" t="s">
-        <v>20</v>
-      </c>
+      <c r="B33" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L33" s="3"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
     <row r="34" spans="1:15" ht="20" customHeight="1">
-      <c r="A34" s="1"/>
-      <c r="B34" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="26"/>
       <c r="E34" s="24"/>
-      <c r="F34" s="5" t="s">
-        <v>41</v>
+      <c r="F34" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>41</v>
@@ -7199,13 +7111,13 @@
     <row r="35" spans="1:15" ht="20" customHeight="1">
       <c r="A35" s="4"/>
       <c r="B35" s="13"/>
-      <c r="C35" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="26"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="25" t="s">
+        <v>51</v>
+      </c>
       <c r="E35" s="24"/>
       <c r="F35" s="14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>41</v>
@@ -7222,7 +7134,7 @@
       <c r="K35" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L35" s="3"/>
+      <c r="L35" s="28"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -7231,43 +7143,45 @@
       <c r="A36" s="4"/>
       <c r="B36" s="13"/>
       <c r="C36" s="27"/>
-      <c r="D36" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E36" s="24"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="29" t="s">
+        <v>45</v>
+      </c>
       <c r="F36" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L36" s="28"/>
+        <v>24</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="I36" s="5">
+        <v>1</v>
+      </c>
+      <c r="J36" s="5">
+        <v>3</v>
+      </c>
+      <c r="K36" s="5">
+        <v>3</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:15" ht="20" customHeight="1">
+    <row r="37" spans="1:15" s="37" customFormat="1" ht="20" customHeight="1">
       <c r="A37" s="4"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
       <c r="E37" s="29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>25</v>
@@ -7279,56 +7193,42 @@
         <v>1</v>
       </c>
       <c r="J37" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K37" s="5">
-        <v>3</v>
+        <v>254</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-    </row>
-    <row r="38" spans="1:15" s="37" customFormat="1" ht="20" customHeight="1">
+        <v>31</v>
+      </c>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+    </row>
+    <row r="38" spans="1:15" ht="20" customHeight="1">
       <c r="A38" s="4"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H38" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="I38" s="5">
-        <v>1</v>
-      </c>
-      <c r="J38" s="5">
-        <v>0</v>
-      </c>
-      <c r="K38" s="5">
-        <v>254</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
     </row>
     <row r="39" spans="1:15" ht="20" customHeight="1">
-      <c r="A39" s="4"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="A39" s="1"/>
+      <c r="B39" s="72" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -7343,11 +7243,13 @@
     </row>
     <row r="40" spans="1:15" ht="20" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
+      <c r="B40" s="59">
+        <v>200</v>
+      </c>
+      <c r="C40" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="64"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -7363,12 +7265,12 @@
     <row r="41" spans="1:15" ht="20" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="59">
-        <v>200</v>
-      </c>
-      <c r="C41" s="71" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" s="72"/>
+        <v>402</v>
+      </c>
+      <c r="C41" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="64"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -7383,13 +7285,9 @@
     </row>
     <row r="42" spans="1:15" ht="20" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="59">
-        <v>402</v>
-      </c>
-      <c r="C42" s="71" t="s">
-        <v>105</v>
-      </c>
-      <c r="D42" s="72"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -7402,73 +7300,73 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:15" ht="20" customHeight="1">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-    </row>
-    <row r="44" spans="1:15" s="35" customFormat="1" ht="20" customHeight="1">
-      <c r="A44" s="34"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="34"/>
-      <c r="M44" s="34"/>
-      <c r="N44" s="34"/>
-      <c r="O44" s="34"/>
-    </row>
-    <row r="45" spans="1:15" ht="20" customHeight="1">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-    </row>
-    <row r="46" spans="1:15" s="35" customFormat="1" ht="20" customHeight="1">
-      <c r="A46" s="34"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="34"/>
-      <c r="M46" s="34"/>
-      <c r="N46" s="34"/>
-      <c r="O46" s="34"/>
+    <row r="43" spans="1:15" s="35" customFormat="1" ht="20" customHeight="1">
+      <c r="A43" s="34"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="34"/>
+      <c r="N43" s="34"/>
+      <c r="O43" s="34"/>
+    </row>
+    <row r="44" spans="1:15" ht="20" customHeight="1">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+    </row>
+    <row r="45" spans="1:15" s="35" customFormat="1" ht="20" customHeight="1">
+      <c r="A45" s="34"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="34"/>
+    </row>
+    <row r="46" spans="1:15" ht="20" customHeight="1">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
     </row>
     <row r="47" spans="1:15" ht="20" customHeight="1">
       <c r="A47" s="1"/>
@@ -8270,58 +8168,40 @@
       <c r="O93" s="1"/>
     </row>
     <row r="94" spans="1:15" ht="20" customHeight="1">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
-      <c r="L94" s="1"/>
-      <c r="M94" s="1"/>
-      <c r="N94" s="1"/>
-      <c r="O94" s="1"/>
-    </row>
-    <row r="95" spans="1:15" ht="20" customHeight="1">
-      <c r="A95" s="36"/>
-      <c r="B95" s="36"/>
-      <c r="C95" s="36"/>
-      <c r="D95" s="36"/>
-      <c r="E95" s="36"/>
-      <c r="F95" s="36"/>
-      <c r="G95" s="36"/>
-      <c r="H95" s="36"/>
-      <c r="I95" s="36"/>
-      <c r="J95" s="36"/>
-      <c r="K95" s="36"/>
-      <c r="L95" s="36"/>
-      <c r="M95" s="36"/>
-      <c r="N95" s="36"/>
-      <c r="O95" s="36"/>
+      <c r="A94" s="36"/>
+      <c r="B94" s="36"/>
+      <c r="C94" s="36"/>
+      <c r="D94" s="36"/>
+      <c r="E94" s="36"/>
+      <c r="F94" s="36"/>
+      <c r="G94" s="36"/>
+      <c r="H94" s="36"/>
+      <c r="I94" s="36"/>
+      <c r="J94" s="36"/>
+      <c r="K94" s="36"/>
+      <c r="L94" s="36"/>
+      <c r="M94" s="36"/>
+      <c r="N94" s="36"/>
+      <c r="O94" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
+  <mergeCells count="16">
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="J13:L13"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:E17"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -8338,7 +8218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="M13" sqref="M12:M13"/>
     </sheetView>
   </sheetViews>
@@ -8403,15 +8283,15 @@
       <c r="B4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="72"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="64"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -8421,15 +8301,15 @@
       <c r="B5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="72"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="64"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -8439,15 +8319,15 @@
       <c r="B6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="72"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="64"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -8457,15 +8337,15 @@
       <c r="B7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="72"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="64"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -8518,19 +8398,19 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1"/>
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="70"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1"/>
@@ -8556,11 +8436,11 @@
       <c r="I12" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="67" t="s">
+      <c r="J12" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
     </row>
     <row r="13" spans="1:13" ht="18">
       <c r="A13" s="1"/>
@@ -8586,11 +8466,11 @@
       <c r="I13" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="61" t="s">
+      <c r="J13" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1"/>
@@ -8608,11 +8488,11 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="11"/>
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
       <c r="E15" s="17"/>
       <c r="F15" s="18"/>
       <c r="G15" s="17"/>
@@ -8624,13 +8504,13 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="21"/>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="64"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="71"/>
       <c r="G16" s="60" t="s">
         <v>21</v>
       </c>
@@ -8745,10 +8625,10 @@
       <c r="B20" s="13"/>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
-      <c r="E20" s="77" t="s">
+      <c r="E20" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="76"/>
+      <c r="F20" s="61"/>
       <c r="G20" s="14" t="s">
         <v>24</v>
       </c>
@@ -8779,7 +8659,7 @@
       <c r="E21" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="76"/>
+      <c r="F21" s="61"/>
       <c r="G21" s="14" t="s">
         <v>27</v>
       </c>
@@ -9023,11 +8903,11 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="1"/>
-      <c r="B36" s="65" t="s">
+      <c r="B36" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -9039,12 +8919,12 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="1"/>
-      <c r="B37" s="62" t="s">
+      <c r="B37" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="63"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="64"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="71"/>
       <c r="F37" s="60" t="s">
         <v>21</v>
       </c>
@@ -9227,11 +9107,11 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="1"/>
-      <c r="B44" s="65" t="s">
+      <c r="B44" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="72"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -9246,10 +9126,10 @@
       <c r="B45" s="59">
         <v>200</v>
       </c>
-      <c r="C45" s="71" t="s">
+      <c r="C45" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="72"/>
+      <c r="D45" s="64"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -9264,10 +9144,10 @@
       <c r="B46" s="59">
         <v>401</v>
       </c>
-      <c r="C46" s="71" t="s">
+      <c r="C46" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="D46" s="72"/>
+      <c r="D46" s="64"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -9282,10 +9162,10 @@
       <c r="B47" s="59">
         <v>402</v>
       </c>
-      <c r="C47" s="71" t="s">
+      <c r="C47" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="D47" s="72"/>
+      <c r="D47" s="64"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -9300,10 +9180,10 @@
       <c r="B48" s="39">
         <v>500</v>
       </c>
-      <c r="C48" s="73" t="s">
+      <c r="C48" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="D48" s="74"/>
+      <c r="D48" s="66"/>
       <c r="E48" s="34"/>
       <c r="F48" s="34"/>
       <c r="G48" s="34"/>
@@ -9315,23 +9195,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="J13:L13"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B16:F16"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I13" r:id="rId1"/>

--- a/docs/userapi/UserAPIFormat.xlsx
+++ b/docs/userapi/UserAPIFormat.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="120">
   <si>
     <t>No</t>
   </si>
@@ -401,6 +401,18 @@
   </si>
   <si>
     <t>username (email) of a specific user whose username (email) matched the keyword</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>123afwer28wer134fcxa</t>
+  </si>
+  <si>
+    <t>Login Token</t>
   </si>
 </sst>
 </file>
@@ -658,7 +670,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="66">
+  <cellStyleXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -697,6 +709,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -886,7 +902,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="66">
+  <cellStyles count="70">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -933,6 +949,10 @@
     <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1137,13 +1157,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>540026</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>167311</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>629477</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>110435</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4488,10 +4508,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView topLeftCell="B17" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4714,12 +4734,12 @@
     </row>
     <row r="13" spans="1:12" ht="18">
       <c r="A13" s="1"/>
-      <c r="B13" s="43"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="14" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>52</v>
@@ -4734,112 +4754,114 @@
         <v>254</v>
       </c>
       <c r="I13" s="46" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="J13" s="68" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="K13" s="68"/>
       <c r="L13" s="68"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" ht="18">
       <c r="A14" s="1"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="5">
+        <v>254</v>
+      </c>
+      <c r="I14" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="11"/>
-      <c r="B15" s="75" t="s">
+      <c r="A15" s="1"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="11"/>
+      <c r="B16" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="11"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="21"/>
-      <c r="B16" s="69" t="s">
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="11"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="21"/>
+      <c r="B17" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="51" t="s">
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="51" t="s">
+      <c r="G17" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="51" t="s">
+      <c r="H17" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="51" t="s">
+      <c r="I17" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="J16" s="51" t="s">
+      <c r="J17" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="51" t="s">
+      <c r="K17" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="51" t="s">
+      <c r="L17" s="51" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="1"/>
-      <c r="B17" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="26"/>
+      <c r="B18" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="24"/>
-      <c r="F18" s="14" t="s">
-        <v>48</v>
+      <c r="F18" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>41</v>
@@ -4847,8 +4869,8 @@
       <c r="H18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="5">
-        <v>1</v>
+      <c r="I18" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>41</v>
@@ -4861,13 +4883,13 @@
     <row r="19" spans="1:12">
       <c r="A19" s="1"/>
       <c r="B19" s="13"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="25" t="s">
-        <v>51</v>
-      </c>
+      <c r="C19" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="26"/>
       <c r="E19" s="24"/>
       <c r="F19" s="14" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>41</v>
@@ -4884,48 +4906,46 @@
       <c r="K19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L19" s="28"/>
-    </row>
-    <row r="20" spans="1:12" ht="18">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1"/>
       <c r="B20" s="13"/>
       <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="29" t="s">
-        <v>45</v>
-      </c>
+      <c r="D20" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="24"/>
       <c r="F20" s="14" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="47" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="I20" s="5">
         <v>1</v>
       </c>
-      <c r="J20" s="5">
-        <v>3</v>
-      </c>
-      <c r="K20" s="5">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="J20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L20" s="28"/>
     </row>
     <row r="21" spans="1:12" ht="18">
       <c r="A21" s="1"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
       <c r="E21" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>25</v>
@@ -4937,34 +4957,48 @@
         <v>1</v>
       </c>
       <c r="J21" s="5">
+        <v>3</v>
+      </c>
+      <c r="K21" s="5">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="18">
+      <c r="A22" s="1"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="5">
+        <v>1</v>
+      </c>
+      <c r="J22" s="5">
         <v>0</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K22" s="5">
         <v>0</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -4978,7 +5012,9 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -5062,11 +5098,9 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1"/>
-      <c r="B30" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -5078,72 +5112,60 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1"/>
-      <c r="B31" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="J31" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="K31" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="L31" s="51" t="s">
-        <v>20</v>
-      </c>
+      <c r="B31" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1"/>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="1"/>
+      <c r="B33" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="4"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="26"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
       <c r="E33" s="24"/>
-      <c r="F33" s="14" t="s">
-        <v>48</v>
+      <c r="F33" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>41</v>
@@ -5165,13 +5187,13 @@
     <row r="34" spans="1:12">
       <c r="A34" s="4"/>
       <c r="B34" s="13"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="25" t="s">
-        <v>51</v>
-      </c>
+      <c r="C34" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="26"/>
       <c r="E34" s="24"/>
       <c r="F34" s="14" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>41</v>
@@ -5188,48 +5210,46 @@
       <c r="K34" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L34" s="28"/>
-    </row>
-    <row r="35" spans="1:12" ht="18">
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="4"/>
       <c r="B35" s="13"/>
       <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="29" t="s">
-        <v>45</v>
-      </c>
+      <c r="D35" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="24"/>
       <c r="F35" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H35" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="I35" s="5">
-        <v>1</v>
-      </c>
-      <c r="J35" s="5">
-        <v>3</v>
-      </c>
-      <c r="K35" s="5">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>89</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L35" s="28"/>
     </row>
     <row r="36" spans="1:12" ht="18">
       <c r="A36" s="4"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
       <c r="E36" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>25</v>
@@ -5241,36 +5261,50 @@
         <v>1</v>
       </c>
       <c r="J36" s="5">
+        <v>3</v>
+      </c>
+      <c r="K36" s="5">
+        <v>3</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="18">
+      <c r="A37" s="4"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="I37" s="5">
+        <v>1</v>
+      </c>
+      <c r="J37" s="5">
         <v>0</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K37" s="5">
         <v>254</v>
       </c>
-      <c r="L36" s="3" t="s">
+      <c r="L37" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="4"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-    </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="1"/>
-      <c r="B38" s="72" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -5282,13 +5316,11 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="1"/>
-      <c r="B39" s="50">
-        <v>200</v>
-      </c>
-      <c r="C39" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="64"/>
+      <c r="B39" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -5301,10 +5333,10 @@
     <row r="40" spans="1:12">
       <c r="A40" s="1"/>
       <c r="B40" s="50">
-        <v>401</v>
+        <v>200</v>
       </c>
       <c r="C40" s="63" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="D40" s="64"/>
       <c r="E40" s="1"/>
@@ -5319,10 +5351,10 @@
     <row r="41" spans="1:12">
       <c r="A41" s="1"/>
       <c r="B41" s="50">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C41" s="63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D41" s="64"/>
       <c r="E41" s="1"/>
@@ -5335,36 +5367,55 @@
       <c r="L41" s="1"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="34"/>
-      <c r="B42" s="39">
+      <c r="A42" s="1"/>
+      <c r="B42" s="50">
+        <v>402</v>
+      </c>
+      <c r="C42" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="64"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="34"/>
+      <c r="B43" s="39">
         <v>500</v>
       </c>
-      <c r="C42" s="65" t="s">
+      <c r="C43" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="D42" s="66"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="34"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="C39:D39"/>
+  <mergeCells count="18">
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B39:D39"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
     <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:E17"/>
     <mergeCell ref="J13:L13"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:E16"/>
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -5373,11 +5424,12 @@
     <mergeCell ref="B11:C11"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I13" r:id="rId1"/>
+    <hyperlink ref="I14" r:id="rId1"/>
+    <hyperlink ref="I13" r:id="rId2" display="foo@mulodo.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5391,7 +5443,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:E22"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6321,8 +6373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:E22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6592,17 +6644,31 @@
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="5"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="F13" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="68"/>
+      <c r="G13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="5">
+        <v>254</v>
+      </c>
+      <c r="I13" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" s="68" t="s">
+        <v>119</v>
+      </c>
       <c r="K13" s="68"/>
       <c r="L13" s="68"/>
       <c r="M13" s="1"/>
@@ -8203,9 +8269,12 @@
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I13" r:id="rId1" display="foo@mulodo.com"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/docs/userapi/UserAPIFormat.xlsx
+++ b/docs/userapi/UserAPIFormat.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="120">
   <si>
     <t>No</t>
   </si>
@@ -856,21 +856,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -899,6 +884,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1157,13 +1157,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>540026</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>167311</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>629477</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>110435</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2588,15 +2588,15 @@
       <c r="B4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="64"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="74"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -2609,15 +2609,15 @@
       <c r="B5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="64"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="74"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -2630,15 +2630,15 @@
       <c r="B6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="64"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="74"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -2651,15 +2651,15 @@
       <c r="B7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="64"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="74"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -2724,19 +2724,19 @@
     </row>
     <row r="11" spans="1:15" ht="20" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="77"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -2765,11 +2765,11 @@
       <c r="I12" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="74" t="s">
+      <c r="J12" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -2798,11 +2798,11 @@
       <c r="I13" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="68" t="s">
+      <c r="J13" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -2831,11 +2831,11 @@
       <c r="I14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="68" t="s">
+      <c r="J14" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -2859,11 +2859,11 @@
     </row>
     <row r="16" spans="1:15" s="19" customFormat="1" ht="20" customHeight="1">
       <c r="A16" s="11"/>
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
       <c r="E16" s="17"/>
       <c r="F16" s="18"/>
       <c r="G16" s="17"/>
@@ -2878,12 +2878,12 @@
     </row>
     <row r="17" spans="1:15" s="23" customFormat="1" ht="20" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="71"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="66"/>
       <c r="F17" s="22" t="s">
         <v>21</v>
       </c>
@@ -3072,10 +3072,10 @@
       <c r="A23" s="1"/>
       <c r="B23" s="31"/>
       <c r="C23" s="32"/>
-      <c r="D23" s="63" t="s">
+      <c r="D23" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="64"/>
+      <c r="E23" s="74"/>
       <c r="F23" s="14" t="s">
         <v>57</v>
       </c>
@@ -3239,11 +3239,11 @@
     </row>
     <row r="32" spans="1:15" ht="20" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="72" t="s">
+      <c r="B32" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -3258,12 +3258,12 @@
     </row>
     <row r="33" spans="1:15" ht="20" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="69" t="s">
+      <c r="B33" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="71"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="66"/>
       <c r="F33" s="22" t="s">
         <v>21</v>
       </c>
@@ -3467,11 +3467,11 @@
     </row>
     <row r="40" spans="1:15" ht="20" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="72" t="s">
+      <c r="B40" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="72"/>
-      <c r="D40" s="72"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="67"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -3489,10 +3489,10 @@
       <c r="B41" s="38">
         <v>200</v>
       </c>
-      <c r="C41" s="63" t="s">
+      <c r="C41" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="64"/>
+      <c r="D41" s="74"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -3510,10 +3510,10 @@
       <c r="B42" s="38">
         <v>401</v>
       </c>
-      <c r="C42" s="63" t="s">
+      <c r="C42" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="D42" s="64"/>
+      <c r="D42" s="74"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -3531,10 +3531,10 @@
       <c r="B43" s="45">
         <v>402</v>
       </c>
-      <c r="C43" s="63" t="s">
+      <c r="C43" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="64"/>
+      <c r="D43" s="74"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -3552,10 +3552,10 @@
       <c r="B44" s="39">
         <v>500</v>
       </c>
-      <c r="C44" s="65" t="s">
+      <c r="C44" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="66"/>
+      <c r="D44" s="76"/>
       <c r="E44" s="34"/>
       <c r="F44" s="34"/>
       <c r="G44" s="34"/>
@@ -4471,6 +4471,14 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C43:D43"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B40:D40"/>
@@ -4482,14 +4490,6 @@
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D23:E23"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C43:D43"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <hyperlinks>
@@ -4508,10 +4508,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:L13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4573,15 +4573,15 @@
       <c r="B4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="64"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="74"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -4591,15 +4591,15 @@
       <c r="B5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="64"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="74"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -4609,15 +4609,15 @@
       <c r="B6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="64"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="74"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -4627,15 +4627,15 @@
       <c r="B7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="64"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="74"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -4688,19 +4688,19 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1"/>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="77"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1"/>
@@ -4726,20 +4726,20 @@
       <c r="I12" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="74" t="s">
+      <c r="J12" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
     </row>
     <row r="13" spans="1:12" ht="18">
       <c r="A13" s="1"/>
-      <c r="B13" s="41"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="14" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>52</v>
@@ -4754,114 +4754,112 @@
         <v>254</v>
       </c>
       <c r="I13" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="J13" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-    </row>
-    <row r="14" spans="1:12" ht="18">
+        <v>38</v>
+      </c>
+      <c r="J13" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="5">
-        <v>254</v>
-      </c>
-      <c r="I14" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="1"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="11"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="11"/>
-      <c r="B16" s="75" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="11"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="51" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="21"/>
-      <c r="B17" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="J17" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="51" t="s">
-        <v>20</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1"/>
-      <c r="B18" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="26"/>
       <c r="E18" s="24"/>
-      <c r="F18" s="5" t="s">
-        <v>41</v>
+      <c r="F18" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>41</v>
@@ -4869,8 +4867,8 @@
       <c r="H18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>41</v>
+      <c r="I18" s="5">
+        <v>1</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>41</v>
@@ -4883,13 +4881,13 @@
     <row r="19" spans="1:12">
       <c r="A19" s="1"/>
       <c r="B19" s="13"/>
-      <c r="C19" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="25" t="s">
+        <v>51</v>
+      </c>
       <c r="E19" s="24"/>
       <c r="F19" s="14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>41</v>
@@ -4906,46 +4904,48 @@
       <c r="K19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="L19" s="28"/>
+    </row>
+    <row r="20" spans="1:12" ht="18">
       <c r="A20" s="1"/>
       <c r="B20" s="13"/>
       <c r="C20" s="27"/>
-      <c r="D20" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="24"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="29" t="s">
+        <v>45</v>
+      </c>
       <c r="F20" s="14" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>41</v>
+        <v>25</v>
+      </c>
+      <c r="H20" s="47" t="s">
+        <v>40</v>
       </c>
       <c r="I20" s="5">
         <v>1</v>
       </c>
-      <c r="J20" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L20" s="28"/>
+      <c r="J20" s="5">
+        <v>3</v>
+      </c>
+      <c r="K20" s="5">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="21" spans="1:12" ht="18">
       <c r="A21" s="1"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
       <c r="E21" s="29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>25</v>
@@ -4957,48 +4957,34 @@
         <v>1</v>
       </c>
       <c r="J21" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K21" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="18">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="I22" s="5">
-        <v>1</v>
-      </c>
-      <c r="J22" s="5">
-        <v>0</v>
-      </c>
-      <c r="K22" s="5">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -5012,9 +4998,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -5098,9 +5082,11 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="B30" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -5112,60 +5098,72 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1"/>
-      <c r="B31" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
+      <c r="B31" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="51" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1"/>
-      <c r="B32" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="J32" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="K32" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="L32" s="51" t="s">
-        <v>20</v>
-      </c>
+      <c r="B32" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L32" s="3"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="1"/>
-      <c r="B33" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="26"/>
       <c r="E33" s="24"/>
-      <c r="F33" s="5" t="s">
-        <v>41</v>
+      <c r="F33" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>41</v>
@@ -5187,13 +5185,13 @@
     <row r="34" spans="1:12">
       <c r="A34" s="4"/>
       <c r="B34" s="13"/>
-      <c r="C34" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="26"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="25" t="s">
+        <v>51</v>
+      </c>
       <c r="E34" s="24"/>
       <c r="F34" s="14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>41</v>
@@ -5210,46 +5208,48 @@
       <c r="K34" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="L34" s="28"/>
+    </row>
+    <row r="35" spans="1:12" ht="18">
       <c r="A35" s="4"/>
       <c r="B35" s="13"/>
       <c r="C35" s="27"/>
-      <c r="D35" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E35" s="24"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="29" t="s">
+        <v>45</v>
+      </c>
       <c r="F35" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L35" s="28"/>
+        <v>24</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="I35" s="5">
+        <v>1</v>
+      </c>
+      <c r="J35" s="5">
+        <v>3</v>
+      </c>
+      <c r="K35" s="5">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="36" spans="1:12" ht="18">
       <c r="A36" s="4"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
       <c r="E36" s="29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>25</v>
@@ -5261,50 +5261,36 @@
         <v>1</v>
       </c>
       <c r="J36" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K36" s="5">
-        <v>3</v>
+        <v>254</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="18">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="4"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H37" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="I37" s="5">
-        <v>1</v>
-      </c>
-      <c r="J37" s="5">
-        <v>0</v>
-      </c>
-      <c r="K37" s="5">
-        <v>254</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="4"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="67"/>
+      <c r="D38" s="67"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -5316,11 +5302,13 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="1"/>
-      <c r="B39" s="72" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
+      <c r="B39" s="50">
+        <v>200</v>
+      </c>
+      <c r="C39" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="74"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -5333,12 +5321,12 @@
     <row r="40" spans="1:12">
       <c r="A40" s="1"/>
       <c r="B40" s="50">
-        <v>200</v>
-      </c>
-      <c r="C40" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" s="64"/>
+        <v>401</v>
+      </c>
+      <c r="C40" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="74"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -5351,12 +5339,12 @@
     <row r="41" spans="1:12">
       <c r="A41" s="1"/>
       <c r="B41" s="50">
-        <v>401</v>
-      </c>
-      <c r="C41" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="D41" s="64"/>
+        <v>402</v>
+      </c>
+      <c r="C41" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="74"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -5367,69 +5355,49 @@
       <c r="L41" s="1"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="1"/>
-      <c r="B42" s="50">
-        <v>402</v>
-      </c>
-      <c r="C42" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="D42" s="64"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="34"/>
-      <c r="B43" s="39">
+      <c r="A42" s="34"/>
+      <c r="B42" s="39">
         <v>500</v>
       </c>
-      <c r="C43" s="65" t="s">
+      <c r="C42" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="66"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="J13:L13"/>
+  <mergeCells count="17">
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="C6:I6"/>
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="B11:C11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I14" r:id="rId1"/>
-    <hyperlink ref="I13" r:id="rId2" display="foo@mulodo.com"/>
+    <hyperlink ref="I13" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5505,15 +5473,15 @@
       <c r="B4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="64"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="74"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -5523,15 +5491,15 @@
       <c r="B5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="64"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="74"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -5541,15 +5509,15 @@
       <c r="B6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="64"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="74"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -5559,15 +5527,15 @@
       <c r="B7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="64"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="74"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -5620,19 +5588,19 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1"/>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="77"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1"/>
@@ -5658,11 +5626,11 @@
       <c r="I12" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="74" t="s">
+      <c r="J12" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
     </row>
     <row r="13" spans="1:12" ht="18">
       <c r="A13" s="1"/>
@@ -5688,11 +5656,11 @@
       <c r="I13" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="68" t="s">
+      <c r="J13" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
     </row>
     <row r="14" spans="1:12" ht="18">
       <c r="A14" s="1"/>
@@ -5718,11 +5686,11 @@
       <c r="I14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="68" t="s">
+      <c r="J14" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
     </row>
     <row r="15" spans="1:12" ht="18">
       <c r="A15" s="1"/>
@@ -5740,11 +5708,11 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="11"/>
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
       <c r="E16" s="17"/>
       <c r="F16" s="18"/>
       <c r="G16" s="17"/>
@@ -5756,12 +5724,12 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="21"/>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="71"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="66"/>
       <c r="F17" s="51" t="s">
         <v>21</v>
       </c>
@@ -6044,11 +6012,11 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1"/>
-      <c r="B31" s="72" t="s">
+      <c r="B31" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -6060,12 +6028,12 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1"/>
-      <c r="B32" s="69" t="s">
+      <c r="B32" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="71"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="66"/>
       <c r="F32" s="51" t="s">
         <v>21</v>
       </c>
@@ -6248,11 +6216,11 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="1"/>
-      <c r="B39" s="72" t="s">
+      <c r="B39" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -6267,10 +6235,10 @@
       <c r="B40" s="50">
         <v>200</v>
       </c>
-      <c r="C40" s="63" t="s">
+      <c r="C40" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="64"/>
+      <c r="D40" s="74"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -6285,10 +6253,10 @@
       <c r="B41" s="50">
         <v>401</v>
       </c>
-      <c r="C41" s="63" t="s">
+      <c r="C41" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="D41" s="64"/>
+      <c r="D41" s="74"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -6303,10 +6271,10 @@
       <c r="B42" s="50">
         <v>402</v>
       </c>
-      <c r="C42" s="63" t="s">
+      <c r="C42" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="D42" s="64"/>
+      <c r="D42" s="74"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -6321,10 +6289,10 @@
       <c r="B43" s="39">
         <v>500</v>
       </c>
-      <c r="C43" s="65" t="s">
+      <c r="C43" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="66"/>
+      <c r="D43" s="76"/>
       <c r="E43" s="34"/>
       <c r="F43" s="34"/>
       <c r="G43" s="34"/>
@@ -6336,6 +6304,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="J13:L13"/>
@@ -6348,12 +6322,6 @@
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C42:D42"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I13" r:id="rId1"/>
@@ -6373,7 +6341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="B16" sqref="B16:D16"/>
     </sheetView>
   </sheetViews>
@@ -6456,15 +6424,15 @@
       <c r="B4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="64"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="74"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -6477,15 +6445,15 @@
       <c r="B5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="64"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="74"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -6498,15 +6466,15 @@
       <c r="B6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="64"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="74"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -6519,15 +6487,15 @@
       <c r="B7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="64"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="74"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -6592,19 +6560,19 @@
     </row>
     <row r="11" spans="1:15" ht="20" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="77"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -6633,11 +6601,11 @@
       <c r="I12" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="74" t="s">
+      <c r="J12" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -6666,11 +6634,11 @@
       <c r="I13" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="J13" s="68" t="s">
+      <c r="J13" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -6687,9 +6655,9 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -6713,11 +6681,11 @@
     </row>
     <row r="16" spans="1:15" s="19" customFormat="1" ht="20" customHeight="1">
       <c r="A16" s="11"/>
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
       <c r="E16" s="17"/>
       <c r="F16" s="18"/>
       <c r="G16" s="17"/>
@@ -6732,12 +6700,12 @@
     </row>
     <row r="17" spans="1:15" s="23" customFormat="1" ht="20" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="71"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="66"/>
       <c r="F17" s="60" t="s">
         <v>21</v>
       </c>
@@ -7062,11 +7030,11 @@
     </row>
     <row r="31" spans="1:15" ht="20" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="72" t="s">
+      <c r="B31" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -7081,12 +7049,12 @@
     </row>
     <row r="32" spans="1:15" ht="20" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="69" t="s">
+      <c r="B32" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="71"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="66"/>
       <c r="F32" s="60" t="s">
         <v>21</v>
       </c>
@@ -7290,11 +7258,11 @@
     </row>
     <row r="39" spans="1:15" ht="20" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="72" t="s">
+      <c r="B39" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -7312,10 +7280,10 @@
       <c r="B40" s="59">
         <v>200</v>
       </c>
-      <c r="C40" s="63" t="s">
+      <c r="C40" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="64"/>
+      <c r="D40" s="74"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -7333,10 +7301,10 @@
       <c r="B41" s="59">
         <v>402</v>
       </c>
-      <c r="C41" s="63" t="s">
+      <c r="C41" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="D41" s="64"/>
+      <c r="D41" s="74"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -8252,22 +8220,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:E17"/>
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="C6:I6"/>
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I13" r:id="rId1" display="foo@mulodo.com"/>
@@ -8352,15 +8320,15 @@
       <c r="B4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="64"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="74"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -8370,15 +8338,15 @@
       <c r="B5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="64"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="74"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -8388,15 +8356,15 @@
       <c r="B6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="64"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="74"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -8406,15 +8374,15 @@
       <c r="B7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="64"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="74"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -8467,19 +8435,19 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1"/>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="77"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1"/>
@@ -8505,11 +8473,11 @@
       <c r="I12" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="74" t="s">
+      <c r="J12" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
     </row>
     <row r="13" spans="1:13" ht="18">
       <c r="A13" s="1"/>
@@ -8535,11 +8503,11 @@
       <c r="I13" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="68" t="s">
+      <c r="J13" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1"/>
@@ -8557,11 +8525,11 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="11"/>
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
       <c r="E15" s="17"/>
       <c r="F15" s="18"/>
       <c r="G15" s="17"/>
@@ -8573,13 +8541,13 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="21"/>
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="71"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="66"/>
       <c r="G16" s="60" t="s">
         <v>21</v>
       </c>
@@ -8972,11 +8940,11 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="1"/>
-      <c r="B36" s="72" t="s">
+      <c r="B36" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -8988,12 +8956,12 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="1"/>
-      <c r="B37" s="69" t="s">
+      <c r="B37" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="71"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="66"/>
       <c r="F37" s="60" t="s">
         <v>21</v>
       </c>
@@ -9176,11 +9144,11 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="1"/>
-      <c r="B44" s="72" t="s">
+      <c r="B44" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="C44" s="72"/>
-      <c r="D44" s="72"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -9195,10 +9163,10 @@
       <c r="B45" s="59">
         <v>200</v>
       </c>
-      <c r="C45" s="63" t="s">
+      <c r="C45" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="64"/>
+      <c r="D45" s="74"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -9213,10 +9181,10 @@
       <c r="B46" s="59">
         <v>401</v>
       </c>
-      <c r="C46" s="63" t="s">
+      <c r="C46" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="D46" s="64"/>
+      <c r="D46" s="74"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -9231,10 +9199,10 @@
       <c r="B47" s="59">
         <v>402</v>
       </c>
-      <c r="C47" s="63" t="s">
+      <c r="C47" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="D47" s="64"/>
+      <c r="D47" s="74"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -9249,10 +9217,10 @@
       <c r="B48" s="39">
         <v>500</v>
       </c>
-      <c r="C48" s="65" t="s">
+      <c r="C48" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="D48" s="66"/>
+      <c r="D48" s="76"/>
       <c r="E48" s="34"/>
       <c r="F48" s="34"/>
       <c r="G48" s="34"/>
@@ -9264,12 +9232,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="B11:C11"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="J13:L13"/>
@@ -9281,6 +9243,12 @@
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="C47:D47"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I13" r:id="rId1"/>

--- a/docs/userapi/UserAPIFormat.xlsx
+++ b/docs/userapi/UserAPIFormat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5000" yWindow="1060" windowWidth="25600" windowHeight="16060" tabRatio="640" activeTab="4"/>
+    <workbookView xWindow="9000" yWindow="780" windowWidth="25600" windowHeight="16060" tabRatio="640" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="API List" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,8 @@
     <sheet name="signup" sheetId="15" r:id="rId4"/>
     <sheet name="logout" sheetId="19" r:id="rId5"/>
     <sheet name="finduser" sheetId="20" r:id="rId6"/>
+    <sheet name="changepwd" sheetId="21" r:id="rId7"/>
+    <sheet name="actusr" sheetId="22" r:id="rId8"/>
   </sheets>
   <calcPr calcId="140000" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="153">
   <si>
     <t>No</t>
   </si>
@@ -413,6 +415,105 @@
   </si>
   <si>
     <t>Login Token</t>
+  </si>
+  <si>
+    <t>Exist User</t>
+  </si>
+  <si>
+    <t>Change Password</t>
+  </si>
+  <si>
+    <t>changepwd</t>
+  </si>
+  <si>
+    <t>Active User</t>
+  </si>
+  <si>
+    <t>actusr</t>
+  </si>
+  <si>
+    <t>Reset Token</t>
+  </si>
+  <si>
+    <t>Get</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>6.1 Summary</t>
+  </si>
+  <si>
+    <t>6.2 Request data structure</t>
+  </si>
+  <si>
+    <t>6.3.1 Response format (xml) normal</t>
+  </si>
+  <si>
+    <t>6.3.2 Response format (xml) error</t>
+  </si>
+  <si>
+    <t>6.3.3 Status code definitions</t>
+  </si>
+  <si>
+    <t>New Password</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>24985aq24ww29485w1</t>
+  </si>
+  <si>
+    <t>hashed new password</t>
+  </si>
+  <si>
+    <t>Activation URI</t>
+  </si>
+  <si>
+    <t>Accoding to 6.3.3</t>
+  </si>
+  <si>
+    <t>Invalid parameters</t>
+  </si>
+  <si>
+    <t>FInd User</t>
+  </si>
+  <si>
+    <t>The API is used for finding all of users based on a specific keyword.</t>
+  </si>
+  <si>
+    <t>The API is used for changing user password.</t>
+  </si>
+  <si>
+    <t>7.</t>
+  </si>
+  <si>
+    <t>Activate User</t>
+  </si>
+  <si>
+    <t>7.1 Summary</t>
+  </si>
+  <si>
+    <t>7.2 Request data structure</t>
+  </si>
+  <si>
+    <t>7.3.1 Response format (xml) normal</t>
+  </si>
+  <si>
+    <t>7.3.2 Response format (xml) error</t>
+  </si>
+  <si>
+    <t>7.3.3 Status code definitions</t>
+  </si>
+  <si>
+    <t>The API is used for activating a new user.</t>
+  </si>
+  <si>
+    <t>Accoding to 7.3.3</t>
   </si>
 </sst>
 </file>
@@ -670,7 +771,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="70">
+  <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -741,8 +842,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -859,6 +961,36 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -886,23 +1018,12 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="70">
+  <cellStyles count="71">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -953,6 +1074,7 @@
     <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1157,13 +1279,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>540026</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>167311</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>629477</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>110435</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1298,6 +1420,21 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
+            <a:t>    &lt;URI&gt;mulodo.com/reset?token=435c663w2123fer4&lt;/URI&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
             <a:t>&lt;/response&gt;</a:t>
           </a:r>
         </a:p>
@@ -1314,13 +1451,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>540026</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>167311</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>629477</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>110435</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1455,7 +1592,7 @@
               <a:latin typeface="ＭＳ ゴシック"/>
               <a:ea typeface="ＭＳ ゴシック"/>
             </a:rPr>
-            <a:t>    &lt;token&gt;346583hfh57ty4ig4&lt;/token&gt;</a:t>
+            <a:t>    &lt;uri&gt;mulodo.com/active?token=346583hfh57ty4ig4&lt;/uri&gt;</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1926,6 +2063,320 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>540026</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>167311</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>629477</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>110435</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1365526" y="5755311"/>
+          <a:ext cx="10744751" cy="1721124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>&lt;response lang="vi" xml:lang="vi"&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>    &lt;error&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>        &lt;status&gt;200&lt;/status&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>        &lt;message&gt;&lt;/message&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>    &lt;/error&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>&lt;/response&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>540026</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>167311</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>629477</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>110435</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1365526" y="5755311"/>
+          <a:ext cx="10744751" cy="1721124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>&lt;response lang="vi" xml:lang="vi"&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>    &lt;error&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>        &lt;status&gt;200&lt;/status&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>        &lt;message&gt;&lt;/message&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>    &lt;/error&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>&lt;/response&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2251,7 +2702,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2366,19 +2817,35 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="8">
+        <v>4</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -2490,6 +2957,8 @@
     <hyperlink ref="B4" location="signup!A1" display="Sign Up"/>
     <hyperlink ref="B5" location="logout!A1" display="Logout"/>
     <hyperlink ref="B6" location="finduser!A1" display="Find User"/>
+    <hyperlink ref="B7" location="changepwd!A1" display="Change Password"/>
+    <hyperlink ref="B8" location="finduser!A1" display="Find User"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2505,7 +2974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -2588,15 +3057,15 @@
       <c r="B4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="74"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="69"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -2609,15 +3078,15 @@
       <c r="B5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="74"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="69"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -2630,15 +3099,15 @@
       <c r="B6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="74"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="69"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -2651,15 +3120,15 @@
       <c r="B7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="74"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="69"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -2724,19 +3193,19 @@
     </row>
     <row r="11" spans="1:15" ht="20" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="72"/>
+      <c r="C11" s="82"/>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -2765,11 +3234,11 @@
       <c r="I12" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="69" t="s">
+      <c r="J12" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -2798,11 +3267,11 @@
       <c r="I13" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="63" t="s">
+      <c r="J13" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -2831,11 +3300,11 @@
       <c r="I14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="63" t="s">
+      <c r="J14" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -2859,11 +3328,11 @@
     </row>
     <row r="16" spans="1:15" s="19" customFormat="1" ht="20" customHeight="1">
       <c r="A16" s="11"/>
-      <c r="B16" s="70" t="s">
+      <c r="B16" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
       <c r="E16" s="17"/>
       <c r="F16" s="18"/>
       <c r="G16" s="17"/>
@@ -2878,12 +3347,12 @@
     </row>
     <row r="17" spans="1:15" s="23" customFormat="1" ht="20" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="66"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="76"/>
       <c r="F17" s="22" t="s">
         <v>21</v>
       </c>
@@ -3072,10 +3541,10 @@
       <c r="A23" s="1"/>
       <c r="B23" s="31"/>
       <c r="C23" s="32"/>
-      <c r="D23" s="73" t="s">
+      <c r="D23" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="74"/>
+      <c r="E23" s="69"/>
       <c r="F23" s="14" t="s">
         <v>57</v>
       </c>
@@ -3239,11 +3708,11 @@
     </row>
     <row r="32" spans="1:15" ht="20" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="67" t="s">
+      <c r="B32" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -3258,12 +3727,12 @@
     </row>
     <row r="33" spans="1:15" ht="20" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="64" t="s">
+      <c r="B33" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="66"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="76"/>
       <c r="F33" s="22" t="s">
         <v>21</v>
       </c>
@@ -3467,11 +3936,11 @@
     </row>
     <row r="40" spans="1:15" ht="20" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="67" t="s">
+      <c r="B40" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="67"/>
-      <c r="D40" s="67"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="77"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -3489,10 +3958,10 @@
       <c r="B41" s="38">
         <v>200</v>
       </c>
-      <c r="C41" s="73" t="s">
+      <c r="C41" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="74"/>
+      <c r="D41" s="69"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -3510,10 +3979,10 @@
       <c r="B42" s="38">
         <v>401</v>
       </c>
-      <c r="C42" s="73" t="s">
+      <c r="C42" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="D42" s="74"/>
+      <c r="D42" s="69"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -3531,10 +4000,10 @@
       <c r="B43" s="45">
         <v>402</v>
       </c>
-      <c r="C43" s="73" t="s">
+      <c r="C43" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="74"/>
+      <c r="D43" s="69"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -3552,10 +4021,10 @@
       <c r="B44" s="39">
         <v>500</v>
       </c>
-      <c r="C44" s="75" t="s">
+      <c r="C44" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="76"/>
+      <c r="D44" s="71"/>
       <c r="E44" s="34"/>
       <c r="F44" s="34"/>
       <c r="G44" s="34"/>
@@ -4471,14 +4940,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C43:D43"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B40:D40"/>
@@ -4490,6 +4951,14 @@
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D23:E23"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C43:D43"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <hyperlinks>
@@ -4508,10 +4977,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="C28" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4573,15 +5042,15 @@
       <c r="B4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="74"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="69"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -4591,15 +5060,15 @@
       <c r="B5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="74"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="69"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -4609,15 +5078,15 @@
       <c r="B6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="74"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="69"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -4627,15 +5096,15 @@
       <c r="B7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="74"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="69"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -4688,19 +5157,19 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1"/>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="72"/>
+      <c r="C11" s="82"/>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1"/>
@@ -4726,11 +5195,11 @@
       <c r="I12" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="69" t="s">
+      <c r="J12" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
     </row>
     <row r="13" spans="1:12" ht="18">
       <c r="A13" s="1"/>
@@ -4756,11 +5225,11 @@
       <c r="I13" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="63" t="s">
+      <c r="J13" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1"/>
@@ -4778,11 +5247,11 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="11"/>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
       <c r="E15" s="17"/>
       <c r="F15" s="18"/>
       <c r="G15" s="17"/>
@@ -4794,12 +5263,12 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="21"/>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="66"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="76"/>
       <c r="F16" s="51" t="s">
         <v>21</v>
       </c>
@@ -4938,8 +5407,8 @@
     </row>
     <row r="21" spans="1:12" ht="18">
       <c r="A21" s="1"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="85"/>
       <c r="D21" s="32"/>
       <c r="E21" s="29" t="s">
         <v>46</v>
@@ -4966,25 +5435,39 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
+    <row r="22" spans="1:12" ht="18">
+      <c r="A22" s="84"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="69"/>
+      <c r="F22" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="5">
+        <v>1</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -4998,7 +5481,9 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -5082,11 +5567,9 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1"/>
-      <c r="B30" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -5098,72 +5581,60 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1"/>
-      <c r="B31" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="J31" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="K31" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="L31" s="51" t="s">
-        <v>20</v>
-      </c>
+      <c r="B31" s="77" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="77"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1"/>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="75"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="1"/>
+      <c r="B33" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="4"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="26"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
       <c r="E33" s="24"/>
-      <c r="F33" s="14" t="s">
-        <v>48</v>
+      <c r="F33" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>41</v>
@@ -5185,13 +5656,13 @@
     <row r="34" spans="1:12">
       <c r="A34" s="4"/>
       <c r="B34" s="13"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="25" t="s">
-        <v>51</v>
-      </c>
+      <c r="C34" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="26"/>
       <c r="E34" s="24"/>
       <c r="F34" s="14" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>41</v>
@@ -5208,48 +5679,46 @@
       <c r="K34" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L34" s="28"/>
-    </row>
-    <row r="35" spans="1:12" ht="18">
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="4"/>
       <c r="B35" s="13"/>
       <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="29" t="s">
-        <v>45</v>
-      </c>
+      <c r="D35" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="24"/>
       <c r="F35" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H35" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="I35" s="5">
-        <v>1</v>
-      </c>
-      <c r="J35" s="5">
-        <v>3</v>
-      </c>
-      <c r="K35" s="5">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>89</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L35" s="28"/>
     </row>
     <row r="36" spans="1:12" ht="18">
       <c r="A36" s="4"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
       <c r="E36" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>25</v>
@@ -5261,54 +5730,80 @@
         <v>1</v>
       </c>
       <c r="J36" s="5">
+        <v>3</v>
+      </c>
+      <c r="K36" s="5">
+        <v>3</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="18">
+      <c r="A37" s="4"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="I37" s="5">
+        <v>1</v>
+      </c>
+      <c r="J37" s="5">
         <v>0</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K37" s="5">
         <v>254</v>
       </c>
-      <c r="L36" s="3" t="s">
+      <c r="L37" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="4"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="1"/>
-      <c r="B38" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
+    <row r="38" spans="1:12" ht="18">
+      <c r="A38" s="84"/>
+      <c r="B38" s="86"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="69"/>
+      <c r="F38" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="G38" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="I38" s="5">
+        <v>1</v>
+      </c>
+      <c r="J38" s="5">
+        <v>0</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="1"/>
-      <c r="B39" s="50">
-        <v>200</v>
-      </c>
-      <c r="C39" s="73" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="74"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -5320,13 +5815,11 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="1"/>
-      <c r="B40" s="50">
-        <v>401</v>
-      </c>
-      <c r="C40" s="73" t="s">
-        <v>65</v>
-      </c>
-      <c r="D40" s="74"/>
+      <c r="B40" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="77"/>
+      <c r="D40" s="77"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -5339,12 +5832,12 @@
     <row r="41" spans="1:12">
       <c r="A41" s="1"/>
       <c r="B41" s="50">
-        <v>402</v>
-      </c>
-      <c r="C41" s="73" t="s">
-        <v>66</v>
-      </c>
-      <c r="D41" s="74"/>
+        <v>200</v>
+      </c>
+      <c r="C41" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="69"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -5355,42 +5848,80 @@
       <c r="L41" s="1"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="34"/>
-      <c r="B42" s="39">
+      <c r="A42" s="1"/>
+      <c r="B42" s="50">
+        <v>401</v>
+      </c>
+      <c r="C42" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" s="69"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="1"/>
+      <c r="B43" s="50">
+        <v>402</v>
+      </c>
+      <c r="C43" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="69"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="34"/>
+      <c r="B44" s="39">
         <v>500</v>
       </c>
-      <c r="C42" s="75" t="s">
+      <c r="C44" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="D42" s="76"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="34"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="19">
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D38:E38"/>
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="C6:I6"/>
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I13" r:id="rId1"/>
@@ -5408,14 +5939,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
     <col min="9" max="9" width="28.5" customWidth="1"/>
     <col min="12" max="12" width="40.6640625" customWidth="1"/>
   </cols>
@@ -5473,15 +6005,15 @@
       <c r="B4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="74"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="69"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -5491,15 +6023,15 @@
       <c r="B5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="74"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="69"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -5509,15 +6041,15 @@
       <c r="B6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="74"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="69"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -5527,15 +6059,15 @@
       <c r="B7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="74"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="69"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -5588,19 +6120,19 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1"/>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="72"/>
+      <c r="C11" s="82"/>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1"/>
@@ -5626,11 +6158,11 @@
       <c r="I12" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="69" t="s">
+      <c r="J12" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
     </row>
     <row r="13" spans="1:12" ht="18">
       <c r="A13" s="1"/>
@@ -5656,11 +6188,11 @@
       <c r="I13" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="63" t="s">
+      <c r="J13" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
     </row>
     <row r="14" spans="1:12" ht="18">
       <c r="A14" s="1"/>
@@ -5686,11 +6218,11 @@
       <c r="I14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="63" t="s">
+      <c r="J14" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
     </row>
     <row r="15" spans="1:12" ht="18">
       <c r="A15" s="1"/>
@@ -5708,11 +6240,11 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="11"/>
-      <c r="B16" s="70" t="s">
+      <c r="B16" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
       <c r="E16" s="17"/>
       <c r="F16" s="18"/>
       <c r="G16" s="17"/>
@@ -5724,12 +6256,12 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="21"/>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="66"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="76"/>
       <c r="F17" s="51" t="s">
         <v>21</v>
       </c>
@@ -5868,8 +6400,8 @@
     </row>
     <row r="22" spans="1:12" ht="18">
       <c r="A22" s="1"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="32"/>
       <c r="E22" s="29" t="s">
         <v>46</v>
@@ -5896,25 +6428,39 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
+    <row r="23" spans="1:12" ht="18">
+      <c r="A23" s="84"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="69"/>
+      <c r="F23" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" s="5">
+        <v>1</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -5928,7 +6474,9 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -6012,11 +6560,9 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1"/>
-      <c r="B31" s="67" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -6028,72 +6574,59 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1"/>
-      <c r="B32" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="J32" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="K32" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="L32" s="51" t="s">
-        <v>20</v>
-      </c>
+      <c r="B32" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1"/>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="1"/>
+      <c r="B34" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="4"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="26"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
       <c r="E34" s="24"/>
-      <c r="F34" s="14" t="s">
-        <v>48</v>
+      <c r="F34" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>41</v>
@@ -6115,13 +6648,13 @@
     <row r="35" spans="1:12">
       <c r="A35" s="4"/>
       <c r="B35" s="13"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="25" t="s">
-        <v>51</v>
-      </c>
+      <c r="C35" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="26"/>
       <c r="E35" s="24"/>
       <c r="F35" s="14" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>41</v>
@@ -6138,48 +6671,46 @@
       <c r="K35" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L35" s="28"/>
-    </row>
-    <row r="36" spans="1:12" ht="18">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="4"/>
       <c r="B36" s="13"/>
       <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="29" t="s">
-        <v>45</v>
-      </c>
+      <c r="D36" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="24"/>
       <c r="F36" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H36" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="I36" s="5">
-        <v>1</v>
-      </c>
-      <c r="J36" s="5">
-        <v>3</v>
-      </c>
-      <c r="K36" s="5">
-        <v>3</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>88</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L36" s="28"/>
     </row>
     <row r="37" spans="1:12" ht="18">
       <c r="A37" s="4"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
       <c r="E37" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>25</v>
@@ -6191,54 +6722,80 @@
         <v>1</v>
       </c>
       <c r="J37" s="5">
+        <v>3</v>
+      </c>
+      <c r="K37" s="5">
+        <v>3</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="18">
+      <c r="A38" s="4"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="I38" s="5">
+        <v>1</v>
+      </c>
+      <c r="J38" s="5">
         <v>0</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K38" s="5">
         <v>254</v>
       </c>
-      <c r="L37" s="3" t="s">
+      <c r="L38" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="4"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="1"/>
-      <c r="B39" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" s="67"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
+    <row r="39" spans="1:12" ht="18">
+      <c r="A39" s="84"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="83"/>
+      <c r="D39" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="69"/>
+      <c r="F39" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="G39" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="I39" s="5">
+        <v>1</v>
+      </c>
+      <c r="J39" s="5">
+        <v>0</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="1"/>
-      <c r="B40" s="50">
-        <v>200</v>
-      </c>
-      <c r="C40" s="73" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" s="74"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -6250,13 +6807,11 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="1"/>
-      <c r="B41" s="50">
-        <v>401</v>
-      </c>
-      <c r="C41" s="73" t="s">
-        <v>65</v>
-      </c>
-      <c r="D41" s="74"/>
+      <c r="B41" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -6269,12 +6824,12 @@
     <row r="42" spans="1:12">
       <c r="A42" s="1"/>
       <c r="B42" s="50">
-        <v>402</v>
-      </c>
-      <c r="C42" s="73" t="s">
-        <v>66</v>
-      </c>
-      <c r="D42" s="74"/>
+        <v>200</v>
+      </c>
+      <c r="C42" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="69"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -6285,43 +6840,80 @@
       <c r="L42" s="1"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="34"/>
-      <c r="B43" s="39">
+      <c r="A43" s="1"/>
+      <c r="B43" s="50">
+        <v>401</v>
+      </c>
+      <c r="C43" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" s="69"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="1"/>
+      <c r="B44" s="50">
+        <v>402</v>
+      </c>
+      <c r="C44" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="69"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="34"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="34"/>
+      <c r="B45" s="39">
         <v>500</v>
       </c>
-      <c r="C43" s="75" t="s">
+      <c r="C45" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="76"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="20">
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D39:E39"/>
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="C6:I6"/>
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I13" r:id="rId1"/>
@@ -6341,8 +6933,2933 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:D16"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="2"/>
+    <col min="8" max="8" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="5.83203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="38.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="20" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" ht="20" customHeight="1">
+      <c r="A2" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" ht="20" customHeight="1">
+      <c r="A3" s="1"/>
+      <c r="B3" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" ht="20" customHeight="1">
+      <c r="A4" s="1"/>
+      <c r="B4" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" ht="20" customHeight="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" ht="20" customHeight="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" ht="20" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" ht="20" customHeight="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" ht="20" customHeight="1">
+      <c r="A9" s="1"/>
+      <c r="B9" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" ht="20" customHeight="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" ht="20" customHeight="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="82"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" ht="20" customHeight="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" ht="20" customHeight="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="5">
+        <v>254</v>
+      </c>
+      <c r="I13" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" ht="20" customHeight="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" ht="20" customHeight="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" s="19" customFormat="1" ht="20" customHeight="1">
+      <c r="A16" s="11"/>
+      <c r="B16" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+    </row>
+    <row r="17" spans="1:15" s="23" customFormat="1" ht="20" customHeight="1">
+      <c r="A17" s="21"/>
+      <c r="B17" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+    </row>
+    <row r="18" spans="1:15" ht="20" customHeight="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" ht="20" customHeight="1">
+      <c r="A19" s="1"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="5">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" ht="20" customHeight="1">
+      <c r="A20" s="1"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="5">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L20" s="28"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" ht="20" customHeight="1">
+      <c r="A21" s="1"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="5">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5">
+        <v>3</v>
+      </c>
+      <c r="K21" s="5">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" ht="20" customHeight="1">
+      <c r="A22" s="1"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="5">
+        <v>1</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" ht="20" customHeight="1">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" ht="20" customHeight="1">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" ht="20" customHeight="1">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" ht="20" customHeight="1">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" ht="20" customHeight="1">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:15" ht="20" customHeight="1">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="1:15" ht="20" customHeight="1">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" ht="20" customHeight="1">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="1:15" ht="20" customHeight="1">
+      <c r="A31" s="1"/>
+      <c r="B31" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="77"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="1:15" ht="20" customHeight="1">
+      <c r="A32" s="1"/>
+      <c r="B32" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="75"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="1:15" ht="20" customHeight="1">
+      <c r="A33" s="1"/>
+      <c r="B33" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L33" s="3"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="1:15" ht="20" customHeight="1">
+      <c r="A34" s="4"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="26"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L34" s="3"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="1:15" ht="20" customHeight="1">
+      <c r="A35" s="4"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="24"/>
+      <c r="F35" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L35" s="28"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="1:15" ht="20" customHeight="1">
+      <c r="A36" s="4"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="I36" s="5">
+        <v>1</v>
+      </c>
+      <c r="J36" s="5">
+        <v>3</v>
+      </c>
+      <c r="K36" s="5">
+        <v>3</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+    </row>
+    <row r="37" spans="1:15" s="37" customFormat="1" ht="20" customHeight="1">
+      <c r="A37" s="4"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="I37" s="5">
+        <v>1</v>
+      </c>
+      <c r="J37" s="5">
+        <v>0</v>
+      </c>
+      <c r="K37" s="5">
+        <v>254</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+    </row>
+    <row r="38" spans="1:15" ht="20" customHeight="1">
+      <c r="A38" s="4"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+    </row>
+    <row r="39" spans="1:15" ht="20" customHeight="1">
+      <c r="A39" s="1"/>
+      <c r="B39" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="77"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+    </row>
+    <row r="40" spans="1:15" ht="20" customHeight="1">
+      <c r="A40" s="1"/>
+      <c r="B40" s="59">
+        <v>200</v>
+      </c>
+      <c r="C40" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="69"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+    </row>
+    <row r="41" spans="1:15" ht="20" customHeight="1">
+      <c r="A41" s="1"/>
+      <c r="B41" s="59">
+        <v>402</v>
+      </c>
+      <c r="C41" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="69"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+    </row>
+    <row r="42" spans="1:15" ht="20" customHeight="1">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+    </row>
+    <row r="43" spans="1:15" s="35" customFormat="1" ht="20" customHeight="1">
+      <c r="A43" s="34"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="34"/>
+      <c r="N43" s="34"/>
+      <c r="O43" s="34"/>
+    </row>
+    <row r="44" spans="1:15" ht="20" customHeight="1">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+    </row>
+    <row r="45" spans="1:15" s="35" customFormat="1" ht="20" customHeight="1">
+      <c r="A45" s="34"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="34"/>
+    </row>
+    <row r="46" spans="1:15" ht="20" customHeight="1">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+    </row>
+    <row r="47" spans="1:15" ht="20" customHeight="1">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+    </row>
+    <row r="48" spans="1:15" ht="20" customHeight="1">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+    </row>
+    <row r="49" spans="1:15" ht="20" customHeight="1">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+    </row>
+    <row r="50" spans="1:15" ht="20" customHeight="1">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+    </row>
+    <row r="51" spans="1:15" ht="20" customHeight="1">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+    </row>
+    <row r="52" spans="1:15" ht="20" customHeight="1">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+    </row>
+    <row r="53" spans="1:15" ht="20" customHeight="1">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+    </row>
+    <row r="54" spans="1:15" ht="20" customHeight="1">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+    </row>
+    <row r="55" spans="1:15" ht="20" customHeight="1">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+    </row>
+    <row r="56" spans="1:15" ht="20" customHeight="1">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+    </row>
+    <row r="57" spans="1:15" ht="20" customHeight="1">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+    </row>
+    <row r="58" spans="1:15" ht="20" customHeight="1">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+    </row>
+    <row r="59" spans="1:15" ht="20" customHeight="1">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+    </row>
+    <row r="60" spans="1:15" ht="20" customHeight="1">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+    </row>
+    <row r="61" spans="1:15" ht="20" customHeight="1">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+    </row>
+    <row r="62" spans="1:15" ht="20" customHeight="1">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+    </row>
+    <row r="63" spans="1:15" ht="20" customHeight="1">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+    </row>
+    <row r="64" spans="1:15" ht="20" customHeight="1">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+    </row>
+    <row r="65" spans="1:15" ht="20" customHeight="1">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+    </row>
+    <row r="66" spans="1:15" ht="20" customHeight="1">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+    </row>
+    <row r="67" spans="1:15" ht="20" customHeight="1">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+    </row>
+    <row r="68" spans="1:15" ht="20" customHeight="1">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+    </row>
+    <row r="69" spans="1:15" ht="20" customHeight="1">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+    </row>
+    <row r="70" spans="1:15" ht="20" customHeight="1">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+    </row>
+    <row r="71" spans="1:15" ht="20" customHeight="1">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+    </row>
+    <row r="72" spans="1:15" ht="20" customHeight="1">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+    </row>
+    <row r="73" spans="1:15" ht="20" customHeight="1">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+    </row>
+    <row r="74" spans="1:15" ht="20" customHeight="1">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+    </row>
+    <row r="75" spans="1:15" ht="20" customHeight="1">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+    </row>
+    <row r="76" spans="1:15" ht="20" customHeight="1">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+    </row>
+    <row r="77" spans="1:15" ht="20" customHeight="1">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+    </row>
+    <row r="78" spans="1:15" ht="20" customHeight="1">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+    </row>
+    <row r="79" spans="1:15" ht="20" customHeight="1">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+    </row>
+    <row r="80" spans="1:15" ht="20" customHeight="1">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+    </row>
+    <row r="81" spans="1:15" ht="20" customHeight="1">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+    </row>
+    <row r="82" spans="1:15" ht="20" customHeight="1">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+    </row>
+    <row r="83" spans="1:15" ht="20" customHeight="1">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+    </row>
+    <row r="84" spans="1:15" ht="20" customHeight="1">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+    </row>
+    <row r="85" spans="1:15" ht="20" customHeight="1">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+    </row>
+    <row r="86" spans="1:15" ht="20" customHeight="1">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+    </row>
+    <row r="87" spans="1:15" ht="20" customHeight="1">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+    </row>
+    <row r="88" spans="1:15" ht="20" customHeight="1">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+    </row>
+    <row r="89" spans="1:15" ht="20" customHeight="1">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+    </row>
+    <row r="90" spans="1:15" ht="20" customHeight="1">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+    </row>
+    <row r="91" spans="1:15" ht="20" customHeight="1">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+    </row>
+    <row r="92" spans="1:15" ht="20" customHeight="1">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+    </row>
+    <row r="93" spans="1:15" ht="20" customHeight="1">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+    </row>
+    <row r="94" spans="1:15" ht="20" customHeight="1">
+      <c r="A94" s="36"/>
+      <c r="B94" s="36"/>
+      <c r="C94" s="36"/>
+      <c r="D94" s="36"/>
+      <c r="E94" s="36"/>
+      <c r="F94" s="36"/>
+      <c r="G94" s="36"/>
+      <c r="H94" s="36"/>
+      <c r="I94" s="36"/>
+      <c r="J94" s="36"/>
+      <c r="K94" s="36"/>
+      <c r="L94" s="36"/>
+      <c r="M94" s="36"/>
+      <c r="N94" s="36"/>
+      <c r="O94" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I13" r:id="rId1" display="foo@mulodo.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" customWidth="1"/>
+    <col min="12" max="12" width="40.33203125" customWidth="1"/>
+    <col min="13" max="13" width="74.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1"/>
+      <c r="B3" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1"/>
+      <c r="B4" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1"/>
+      <c r="B5" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1"/>
+      <c r="B6" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1"/>
+      <c r="B7" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1"/>
+      <c r="B9" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1"/>
+      <c r="B10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1"/>
+      <c r="B11" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="82"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+    </row>
+    <row r="13" spans="1:13" ht="18">
+      <c r="A13" s="1"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="5">
+        <v>254</v>
+      </c>
+      <c r="I13" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="11"/>
+      <c r="B15" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="11"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="21"/>
+      <c r="B16" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1"/>
+      <c r="B17" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" s="5">
+        <v>1</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" s="5">
+        <v>1</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M19" s="28"/>
+    </row>
+    <row r="20" spans="1:13" ht="18">
+      <c r="A20" s="1"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="61"/>
+      <c r="G20" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="5">
+        <v>1</v>
+      </c>
+      <c r="K20" s="5">
+        <v>3</v>
+      </c>
+      <c r="L20" s="5">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="18">
+      <c r="A21" s="1"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="61"/>
+      <c r="G21" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" s="5">
+        <v>1</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="18">
+      <c r="A22" s="1"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" s="5">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L22" s="5">
+        <v>254</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="1"/>
+      <c r="B36" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="77"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="1"/>
+      <c r="B37" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="75"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="J37" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37" s="60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="1"/>
+      <c r="B38" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L38" s="3"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="4"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="26"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="4"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="24"/>
+      <c r="F40" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L40" s="28"/>
+    </row>
+    <row r="41" spans="1:12" ht="18">
+      <c r="A41" s="4"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="I41" s="5">
+        <v>1</v>
+      </c>
+      <c r="J41" s="5">
+        <v>3</v>
+      </c>
+      <c r="K41" s="5">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="18">
+      <c r="A42" s="4"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="I42" s="5">
+        <v>1</v>
+      </c>
+      <c r="J42" s="5">
+        <v>0</v>
+      </c>
+      <c r="K42" s="5">
+        <v>254</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="4"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="1"/>
+      <c r="B44" s="77" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="77"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="1"/>
+      <c r="B45" s="59">
+        <v>200</v>
+      </c>
+      <c r="C45" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="69"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="1"/>
+      <c r="B46" s="59">
+        <v>401</v>
+      </c>
+      <c r="C46" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" s="69"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="1"/>
+      <c r="B47" s="59">
+        <v>402</v>
+      </c>
+      <c r="C47" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="69"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="34"/>
+      <c r="B48" s="39">
+        <v>500</v>
+      </c>
+      <c r="C48" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="71"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I13" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O95"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6381,10 +9898,10 @@
     </row>
     <row r="2" spans="1:15" ht="20" customHeight="1">
       <c r="A2" s="49" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -6403,7 +9920,7 @@
     <row r="3" spans="1:15" ht="20" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="11" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="1"/>
@@ -6424,15 +9941,15 @@
       <c r="B4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="73" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="74"/>
+      <c r="C4" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="69"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -6445,15 +9962,15 @@
       <c r="B5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="73" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="74"/>
+      <c r="C5" s="68" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="69"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -6466,15 +9983,15 @@
       <c r="B6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="73" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="74"/>
+      <c r="C6" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="69"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -6487,15 +10004,15 @@
       <c r="B7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="74"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="69"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -6523,7 +10040,7 @@
     <row r="9" spans="1:15" ht="20" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="12" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="1"/>
@@ -6560,19 +10077,19 @@
     </row>
     <row r="11" spans="1:15" ht="20" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="72"/>
+      <c r="C11" s="82"/>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -6580,32 +10097,32 @@
     <row r="12" spans="1:15" ht="20" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="41"/>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="60" t="s">
+      <c r="E12" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="60" t="s">
+      <c r="F12" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="60" t="s">
+      <c r="G12" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="60" t="s">
+      <c r="H12" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="60" t="s">
+      <c r="I12" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="69" t="s">
+      <c r="J12" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -6634,11 +10151,11 @@
       <c r="I13" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="J13" s="63" t="s">
-        <v>119</v>
-      </c>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
+      <c r="J13" s="73" t="s">
+        <v>125</v>
+      </c>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -6646,18 +10163,32 @@
     <row r="14" spans="1:15" ht="20" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="43"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="5"/>
+      <c r="C14" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="F14" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
+      <c r="G14" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H14" s="5">
+        <v>254</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J14" s="73" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -6681,11 +10212,11 @@
     </row>
     <row r="16" spans="1:15" s="19" customFormat="1" ht="20" customHeight="1">
       <c r="A16" s="11"/>
-      <c r="B16" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
+      <c r="B16" s="80" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
       <c r="E16" s="17"/>
       <c r="F16" s="18"/>
       <c r="G16" s="17"/>
@@ -6700,31 +10231,31 @@
     </row>
     <row r="17" spans="1:15" s="23" customFormat="1" ht="20" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="60" t="s">
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="60" t="s">
+      <c r="G17" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="60" t="s">
+      <c r="H17" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="60" t="s">
+      <c r="I17" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="J17" s="60" t="s">
+      <c r="J17" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="60" t="s">
+      <c r="K17" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="60" t="s">
+      <c r="L17" s="65" t="s">
         <v>20</v>
       </c>
       <c r="M17" s="21"/>
@@ -7030,11 +10561,11 @@
     </row>
     <row r="31" spans="1:15" ht="20" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="67" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
+      <c r="B31" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="77"/>
+      <c r="D31" s="77"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -7049,31 +10580,31 @@
     </row>
     <row r="32" spans="1:15" ht="20" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="64" t="s">
+      <c r="B32" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="60" t="s">
+      <c r="C32" s="75"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="60" t="s">
+      <c r="G32" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="60" t="s">
+      <c r="H32" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="I32" s="60" t="s">
+      <c r="I32" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="J32" s="60" t="s">
+      <c r="J32" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="K32" s="60" t="s">
+      <c r="K32" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="L32" s="60" t="s">
+      <c r="L32" s="65" t="s">
         <v>20</v>
       </c>
       <c r="M32" s="1"/>
@@ -7200,7 +10731,7 @@
         <v>3</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -7258,11 +10789,11 @@
     </row>
     <row r="39" spans="1:15" ht="20" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="67" t="s">
-        <v>94</v>
-      </c>
-      <c r="C39" s="67"/>
-      <c r="D39" s="67"/>
+      <c r="B39" s="77" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" s="77"/>
+      <c r="D39" s="77"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -7277,13 +10808,13 @@
     </row>
     <row r="40" spans="1:15" ht="20" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="59">
+      <c r="B40" s="64">
         <v>200</v>
       </c>
-      <c r="C40" s="73" t="s">
+      <c r="C40" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="74"/>
+      <c r="D40" s="69"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -7298,13 +10829,1950 @@
     </row>
     <row r="41" spans="1:15" ht="20" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="59">
+      <c r="B41" s="64">
+        <v>401</v>
+      </c>
+      <c r="C41" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" s="67"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+    </row>
+    <row r="42" spans="1:15" ht="20" customHeight="1">
+      <c r="A42" s="1"/>
+      <c r="B42" s="64">
         <v>402</v>
       </c>
-      <c r="C41" s="73" t="s">
+      <c r="C42" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="D41" s="74"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+    </row>
+    <row r="43" spans="1:15" ht="20" customHeight="1">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+    </row>
+    <row r="44" spans="1:15" s="35" customFormat="1" ht="20" customHeight="1">
+      <c r="A44" s="34"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="34"/>
+      <c r="M44" s="34"/>
+      <c r="N44" s="34"/>
+      <c r="O44" s="34"/>
+    </row>
+    <row r="45" spans="1:15" ht="20" customHeight="1">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+    </row>
+    <row r="46" spans="1:15" s="35" customFormat="1" ht="20" customHeight="1">
+      <c r="A46" s="34"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="34"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="34"/>
+    </row>
+    <row r="47" spans="1:15" ht="20" customHeight="1">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+    </row>
+    <row r="48" spans="1:15" ht="20" customHeight="1">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+    </row>
+    <row r="49" spans="1:15" ht="20" customHeight="1">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+    </row>
+    <row r="50" spans="1:15" ht="20" customHeight="1">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+    </row>
+    <row r="51" spans="1:15" ht="20" customHeight="1">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+    </row>
+    <row r="52" spans="1:15" ht="20" customHeight="1">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+    </row>
+    <row r="53" spans="1:15" ht="20" customHeight="1">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+    </row>
+    <row r="54" spans="1:15" ht="20" customHeight="1">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+    </row>
+    <row r="55" spans="1:15" ht="20" customHeight="1">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+    </row>
+    <row r="56" spans="1:15" ht="20" customHeight="1">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+    </row>
+    <row r="57" spans="1:15" ht="20" customHeight="1">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+    </row>
+    <row r="58" spans="1:15" ht="20" customHeight="1">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+    </row>
+    <row r="59" spans="1:15" ht="20" customHeight="1">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+    </row>
+    <row r="60" spans="1:15" ht="20" customHeight="1">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+    </row>
+    <row r="61" spans="1:15" ht="20" customHeight="1">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+    </row>
+    <row r="62" spans="1:15" ht="20" customHeight="1">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+    </row>
+    <row r="63" spans="1:15" ht="20" customHeight="1">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+    </row>
+    <row r="64" spans="1:15" ht="20" customHeight="1">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+    </row>
+    <row r="65" spans="1:15" ht="20" customHeight="1">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+    </row>
+    <row r="66" spans="1:15" ht="20" customHeight="1">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+    </row>
+    <row r="67" spans="1:15" ht="20" customHeight="1">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+    </row>
+    <row r="68" spans="1:15" ht="20" customHeight="1">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+    </row>
+    <row r="69" spans="1:15" ht="20" customHeight="1">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+    </row>
+    <row r="70" spans="1:15" ht="20" customHeight="1">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+    </row>
+    <row r="71" spans="1:15" ht="20" customHeight="1">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+    </row>
+    <row r="72" spans="1:15" ht="20" customHeight="1">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+    </row>
+    <row r="73" spans="1:15" ht="20" customHeight="1">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+    </row>
+    <row r="74" spans="1:15" ht="20" customHeight="1">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+    </row>
+    <row r="75" spans="1:15" ht="20" customHeight="1">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+    </row>
+    <row r="76" spans="1:15" ht="20" customHeight="1">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+    </row>
+    <row r="77" spans="1:15" ht="20" customHeight="1">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+    </row>
+    <row r="78" spans="1:15" ht="20" customHeight="1">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+    </row>
+    <row r="79" spans="1:15" ht="20" customHeight="1">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+    </row>
+    <row r="80" spans="1:15" ht="20" customHeight="1">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+    </row>
+    <row r="81" spans="1:15" ht="20" customHeight="1">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+    </row>
+    <row r="82" spans="1:15" ht="20" customHeight="1">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+    </row>
+    <row r="83" spans="1:15" ht="20" customHeight="1">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+    </row>
+    <row r="84" spans="1:15" ht="20" customHeight="1">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+    </row>
+    <row r="85" spans="1:15" ht="20" customHeight="1">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+    </row>
+    <row r="86" spans="1:15" ht="20" customHeight="1">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+    </row>
+    <row r="87" spans="1:15" ht="20" customHeight="1">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+    </row>
+    <row r="88" spans="1:15" ht="20" customHeight="1">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+    </row>
+    <row r="89" spans="1:15" ht="20" customHeight="1">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+    </row>
+    <row r="90" spans="1:15" ht="20" customHeight="1">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+    </row>
+    <row r="91" spans="1:15" ht="20" customHeight="1">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+    </row>
+    <row r="92" spans="1:15" ht="20" customHeight="1">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+    </row>
+    <row r="93" spans="1:15" ht="20" customHeight="1">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+    </row>
+    <row r="94" spans="1:15" ht="20" customHeight="1">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+    </row>
+    <row r="95" spans="1:15" ht="20" customHeight="1">
+      <c r="A95" s="36"/>
+      <c r="B95" s="36"/>
+      <c r="C95" s="36"/>
+      <c r="D95" s="36"/>
+      <c r="E95" s="36"/>
+      <c r="F95" s="36"/>
+      <c r="G95" s="36"/>
+      <c r="H95" s="36"/>
+      <c r="I95" s="36"/>
+      <c r="J95" s="36"/>
+      <c r="K95" s="36"/>
+      <c r="L95" s="36"/>
+      <c r="M95" s="36"/>
+      <c r="N95" s="36"/>
+      <c r="O95" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="J11:L11"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I13" r:id="rId1" display="foo@mulodo.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O94"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="2"/>
+    <col min="8" max="8" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="5.83203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="38.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="20" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" ht="20" customHeight="1">
+      <c r="A2" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" ht="20" customHeight="1">
+      <c r="A3" s="1"/>
+      <c r="B3" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" ht="20" customHeight="1">
+      <c r="A4" s="1"/>
+      <c r="B4" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" ht="20" customHeight="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" ht="20" customHeight="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" ht="20" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" ht="20" customHeight="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" ht="20" customHeight="1">
+      <c r="A9" s="1"/>
+      <c r="B9" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" ht="20" customHeight="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" ht="20" customHeight="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="82"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" ht="20" customHeight="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" ht="20" customHeight="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="5">
+        <v>254</v>
+      </c>
+      <c r="I13" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" s="73" t="s">
+        <v>125</v>
+      </c>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" ht="20" customHeight="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" s="19" customFormat="1" ht="20" customHeight="1">
+      <c r="A15" s="11"/>
+      <c r="B15" s="80" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+    </row>
+    <row r="16" spans="1:15" s="23" customFormat="1" ht="20" customHeight="1">
+      <c r="A16" s="21"/>
+      <c r="B16" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+    </row>
+    <row r="17" spans="1:15" ht="20" customHeight="1">
+      <c r="A17" s="1"/>
+      <c r="B17" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" ht="20" customHeight="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" ht="20" customHeight="1">
+      <c r="A19" s="1"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="24"/>
+      <c r="F19" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="5">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" s="28"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" ht="20" customHeight="1">
+      <c r="A20" s="1"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="5">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5">
+        <v>3</v>
+      </c>
+      <c r="K20" s="5">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" ht="20" customHeight="1">
+      <c r="A21" s="1"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="5">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" ht="20" customHeight="1">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" ht="20" customHeight="1">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" ht="20" customHeight="1">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" ht="20" customHeight="1">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" ht="20" customHeight="1">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" ht="20" customHeight="1">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:15" ht="20" customHeight="1">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="1:15" ht="20" customHeight="1">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" ht="20" customHeight="1">
+      <c r="A30" s="1"/>
+      <c r="B30" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="1:15" ht="20" customHeight="1">
+      <c r="A31" s="1"/>
+      <c r="B31" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="75"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="1:15" ht="20" customHeight="1">
+      <c r="A32" s="1"/>
+      <c r="B32" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L32" s="3"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="1:15" ht="20" customHeight="1">
+      <c r="A33" s="4"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="26"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L33" s="3"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="1:15" ht="20" customHeight="1">
+      <c r="A34" s="4"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="24"/>
+      <c r="F34" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L34" s="28"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="1:15" ht="20" customHeight="1">
+      <c r="A35" s="4"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="I35" s="5">
+        <v>1</v>
+      </c>
+      <c r="J35" s="5">
+        <v>3</v>
+      </c>
+      <c r="K35" s="5">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="1:15" s="37" customFormat="1" ht="20" customHeight="1">
+      <c r="A36" s="4"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="I36" s="5">
+        <v>1</v>
+      </c>
+      <c r="J36" s="5">
+        <v>0</v>
+      </c>
+      <c r="K36" s="5">
+        <v>254</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+    </row>
+    <row r="37" spans="1:15" ht="20" customHeight="1">
+      <c r="A37" s="4"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+    </row>
+    <row r="38" spans="1:15" ht="20" customHeight="1">
+      <c r="A38" s="1"/>
+      <c r="B38" s="77" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" s="77"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+    </row>
+    <row r="39" spans="1:15" ht="20" customHeight="1">
+      <c r="A39" s="1"/>
+      <c r="B39" s="64">
+        <v>200</v>
+      </c>
+      <c r="C39" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="69"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+    </row>
+    <row r="40" spans="1:15" ht="20" customHeight="1">
+      <c r="A40" s="1"/>
+      <c r="B40" s="64">
+        <v>401</v>
+      </c>
+      <c r="C40" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40" s="67"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+    </row>
+    <row r="41" spans="1:15" ht="20" customHeight="1">
+      <c r="A41" s="1"/>
+      <c r="B41" s="64">
+        <v>402</v>
+      </c>
+      <c r="C41" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="69"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -8219,23 +13687,22 @@
       <c r="O94" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="C40:D40"/>
+  <mergeCells count="15">
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="C39:D39"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="J13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B30:D30"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="C6:I6"/>
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="B11:C11"/>
+    <mergeCell ref="J11:L11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I13" r:id="rId1" display="foo@mulodo.com"/>
@@ -8249,1017 +13716,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M48"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M13" sqref="M12:M13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
-    <col min="9" max="9" width="22.6640625" customWidth="1"/>
-    <col min="12" max="12" width="40.33203125" customWidth="1"/>
-    <col min="13" max="13" width="74.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1"/>
-      <c r="B3" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1"/>
-      <c r="B4" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1"/>
-      <c r="B5" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1"/>
-      <c r="B6" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="73" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1"/>
-      <c r="B7" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1"/>
-      <c r="B9" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="1"/>
-      <c r="B10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="1"/>
-      <c r="B11" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="72"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="1"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-    </row>
-    <row r="13" spans="1:13" ht="18">
-      <c r="A13" s="1"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="5">
-        <v>254</v>
-      </c>
-      <c r="I13" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="63" t="s">
-        <v>112</v>
-      </c>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="1"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="11"/>
-      <c r="B15" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="11"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="21"/>
-      <c r="B16" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="K16" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="L16" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="M16" s="60" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="1"/>
-      <c r="B17" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="1"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J18" s="5">
-        <v>1</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="1"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J19" s="5">
-        <v>1</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M19" s="28"/>
-    </row>
-    <row r="20" spans="1:13" ht="18">
-      <c r="A20" s="1"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="61"/>
-      <c r="G20" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="J20" s="5">
-        <v>1</v>
-      </c>
-      <c r="K20" s="5">
-        <v>3</v>
-      </c>
-      <c r="L20" s="5">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="18">
-      <c r="A21" s="1"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="61"/>
-      <c r="G21" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I21" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="J21" s="5">
-        <v>1</v>
-      </c>
-      <c r="K21" s="5">
-        <v>0</v>
-      </c>
-      <c r="L21" s="5">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="18">
-      <c r="A22" s="1"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="E22" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="F22" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I22" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="J22" s="5">
-        <v>1</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L22" s="5">
-        <v>254</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="1"/>
-      <c r="B36" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="1"/>
-      <c r="B37" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="I37" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="J37" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="K37" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="L37" s="60" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="1"/>
-      <c r="B38" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L38" s="3"/>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="4"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="4"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L40" s="28"/>
-    </row>
-    <row r="41" spans="1:12" ht="18">
-      <c r="A41" s="4"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H41" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="I41" s="5">
-        <v>1</v>
-      </c>
-      <c r="J41" s="5">
-        <v>3</v>
-      </c>
-      <c r="K41" s="5">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="18">
-      <c r="A42" s="4"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H42" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="I42" s="5">
-        <v>1</v>
-      </c>
-      <c r="J42" s="5">
-        <v>0</v>
-      </c>
-      <c r="K42" s="5">
-        <v>254</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="4"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="1"/>
-      <c r="B44" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="C44" s="67"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="1"/>
-      <c r="B45" s="59">
-        <v>200</v>
-      </c>
-      <c r="C45" s="73" t="s">
-        <v>33</v>
-      </c>
-      <c r="D45" s="74"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="1"/>
-      <c r="B46" s="59">
-        <v>401</v>
-      </c>
-      <c r="C46" s="73" t="s">
-        <v>65</v>
-      </c>
-      <c r="D46" s="74"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="1"/>
-      <c r="B47" s="59">
-        <v>402</v>
-      </c>
-      <c r="C47" s="73" t="s">
-        <v>66</v>
-      </c>
-      <c r="D47" s="74"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="34"/>
-      <c r="B48" s="39">
-        <v>500</v>
-      </c>
-      <c r="C48" s="75" t="s">
-        <v>37</v>
-      </c>
-      <c r="D48" s="76"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="34"/>
-    </row>
-  </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="B11:C11"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="I13" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/docs/userapi/UserAPIFormat.xlsx
+++ b/docs/userapi/UserAPIFormat.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="152">
   <si>
     <t>No</t>
   </si>
@@ -433,9 +433,6 @@
   </si>
   <si>
     <t>Reset Token</t>
-  </si>
-  <si>
-    <t>Get</t>
   </si>
   <si>
     <t>6.</t>
@@ -973,21 +970,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1018,10 +1004,21 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="71">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3057,15 +3054,15 @@
       <c r="B4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="69"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="83"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -3078,15 +3075,15 @@
       <c r="B5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="69"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="83"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -3099,15 +3096,15 @@
       <c r="B6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="69"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="83"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -3120,15 +3117,15 @@
       <c r="B7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="69"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="83"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -3193,19 +3190,19 @@
     </row>
     <row r="11" spans="1:15" ht="20" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="82"/>
+      <c r="C11" s="81"/>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -3234,11 +3231,11 @@
       <c r="I12" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="79" t="s">
+      <c r="J12" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="79"/>
-      <c r="L12" s="79"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -3267,11 +3264,11 @@
       <c r="I13" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="73" t="s">
+      <c r="J13" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -3300,11 +3297,11 @@
       <c r="I14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="73" t="s">
+      <c r="J14" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -3328,11 +3325,11 @@
     </row>
     <row r="16" spans="1:15" s="19" customFormat="1" ht="20" customHeight="1">
       <c r="A16" s="11"/>
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
       <c r="E16" s="17"/>
       <c r="F16" s="18"/>
       <c r="G16" s="17"/>
@@ -3347,12 +3344,12 @@
     </row>
     <row r="17" spans="1:15" s="23" customFormat="1" ht="20" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="76"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="75"/>
       <c r="F17" s="22" t="s">
         <v>21</v>
       </c>
@@ -3541,10 +3538,10 @@
       <c r="A23" s="1"/>
       <c r="B23" s="31"/>
       <c r="C23" s="32"/>
-      <c r="D23" s="68" t="s">
+      <c r="D23" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="69"/>
+      <c r="E23" s="83"/>
       <c r="F23" s="14" t="s">
         <v>57</v>
       </c>
@@ -3708,11 +3705,11 @@
     </row>
     <row r="32" spans="1:15" ht="20" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="77" t="s">
+      <c r="B32" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -3727,12 +3724,12 @@
     </row>
     <row r="33" spans="1:15" ht="20" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="74" t="s">
+      <c r="B33" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="76"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="75"/>
       <c r="F33" s="22" t="s">
         <v>21</v>
       </c>
@@ -3936,11 +3933,11 @@
     </row>
     <row r="40" spans="1:15" ht="20" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="77" t="s">
+      <c r="B40" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -3958,10 +3955,10 @@
       <c r="B41" s="38">
         <v>200</v>
       </c>
-      <c r="C41" s="68" t="s">
+      <c r="C41" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="69"/>
+      <c r="D41" s="83"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -3979,10 +3976,10 @@
       <c r="B42" s="38">
         <v>401</v>
       </c>
-      <c r="C42" s="68" t="s">
+      <c r="C42" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="D42" s="69"/>
+      <c r="D42" s="83"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -4000,10 +3997,10 @@
       <c r="B43" s="45">
         <v>402</v>
       </c>
-      <c r="C43" s="68" t="s">
+      <c r="C43" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="69"/>
+      <c r="D43" s="83"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -4021,10 +4018,10 @@
       <c r="B44" s="39">
         <v>500</v>
       </c>
-      <c r="C44" s="70" t="s">
+      <c r="C44" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="71"/>
+      <c r="D44" s="85"/>
       <c r="E44" s="34"/>
       <c r="F44" s="34"/>
       <c r="G44" s="34"/>
@@ -4940,6 +4937,14 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C43:D43"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B40:D40"/>
@@ -4951,14 +4956,6 @@
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D23:E23"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C43:D43"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <hyperlinks>
@@ -5042,15 +5039,15 @@
       <c r="B4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="69"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="83"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -5060,15 +5057,15 @@
       <c r="B5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="69"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="83"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -5078,15 +5075,15 @@
       <c r="B6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="69"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="83"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -5096,15 +5093,15 @@
       <c r="B7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="69"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="83"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -5157,19 +5154,19 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1"/>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="82"/>
+      <c r="C11" s="81"/>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1"/>
@@ -5195,11 +5192,11 @@
       <c r="I12" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="79" t="s">
+      <c r="J12" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="79"/>
-      <c r="L12" s="79"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
     </row>
     <row r="13" spans="1:12" ht="18">
       <c r="A13" s="1"/>
@@ -5225,11 +5222,11 @@
       <c r="I13" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="73" t="s">
+      <c r="J13" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1"/>
@@ -5247,11 +5244,11 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="11"/>
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="79" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
       <c r="E15" s="17"/>
       <c r="F15" s="18"/>
       <c r="G15" s="17"/>
@@ -5263,12 +5260,12 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="21"/>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="76"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="75"/>
       <c r="F16" s="51" t="s">
         <v>21</v>
       </c>
@@ -5408,7 +5405,7 @@
     <row r="21" spans="1:12" ht="18">
       <c r="A21" s="1"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="85"/>
+      <c r="C21" s="70"/>
       <c r="D21" s="32"/>
       <c r="E21" s="29" t="s">
         <v>46</v>
@@ -5436,15 +5433,15 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="18">
-      <c r="A22" s="84"/>
+      <c r="A22" s="69"/>
       <c r="B22" s="32"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="68" t="s">
+      <c r="C22" s="68"/>
+      <c r="D22" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="69"/>
+      <c r="E22" s="83"/>
       <c r="F22" s="63" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>25</v>
@@ -5459,7 +5456,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>28</v>
@@ -5581,11 +5578,11 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1"/>
-      <c r="B31" s="77" t="s">
+      <c r="B31" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="77"/>
-      <c r="D31" s="77"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -5597,12 +5594,12 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1"/>
-      <c r="B32" s="74" t="s">
+      <c r="B32" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="75"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="76"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="75"/>
       <c r="F32" s="51" t="s">
         <v>21</v>
       </c>
@@ -5742,7 +5739,7 @@
     <row r="37" spans="1:12" ht="18">
       <c r="A37" s="4"/>
       <c r="B37" s="13"/>
-      <c r="C37" s="85"/>
+      <c r="C37" s="70"/>
       <c r="D37" s="32"/>
       <c r="E37" s="29" t="s">
         <v>46</v>
@@ -5770,15 +5767,15 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="18">
-      <c r="A38" s="84"/>
-      <c r="B38" s="86"/>
+      <c r="A38" s="69"/>
+      <c r="B38" s="71"/>
       <c r="C38" s="32"/>
-      <c r="D38" s="68" t="s">
+      <c r="D38" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="69"/>
+      <c r="E38" s="83"/>
       <c r="F38" s="63" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G38" s="63" t="s">
         <v>25</v>
@@ -5793,7 +5790,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>28</v>
@@ -5815,11 +5812,11 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="1"/>
-      <c r="B40" s="77" t="s">
+      <c r="B40" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -5834,10 +5831,10 @@
       <c r="B41" s="50">
         <v>200</v>
       </c>
-      <c r="C41" s="68" t="s">
+      <c r="C41" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="69"/>
+      <c r="D41" s="83"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -5852,10 +5849,10 @@
       <c r="B42" s="50">
         <v>401</v>
       </c>
-      <c r="C42" s="68" t="s">
+      <c r="C42" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="D42" s="69"/>
+      <c r="D42" s="83"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -5870,10 +5867,10 @@
       <c r="B43" s="50">
         <v>402</v>
       </c>
-      <c r="C43" s="68" t="s">
+      <c r="C43" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="69"/>
+      <c r="D43" s="83"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -5888,10 +5885,10 @@
       <c r="B44" s="39">
         <v>500</v>
       </c>
-      <c r="C44" s="70" t="s">
+      <c r="C44" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="71"/>
+      <c r="D44" s="85"/>
       <c r="E44" s="34"/>
       <c r="F44" s="34"/>
       <c r="G44" s="34"/>
@@ -5903,6 +5900,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="J13:L13"/>
     <mergeCell ref="B15:D15"/>
@@ -5916,12 +5919,6 @@
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D38:E38"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I13" r:id="rId1"/>
@@ -6005,15 +6002,15 @@
       <c r="B4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="69"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="83"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -6023,15 +6020,15 @@
       <c r="B5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="69"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="83"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -6041,15 +6038,15 @@
       <c r="B6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="69"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="83"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -6059,15 +6056,15 @@
       <c r="B7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="69"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="83"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -6120,19 +6117,19 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1"/>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="82"/>
+      <c r="C11" s="81"/>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1"/>
@@ -6158,11 +6155,11 @@
       <c r="I12" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="79" t="s">
+      <c r="J12" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="79"/>
-      <c r="L12" s="79"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
     </row>
     <row r="13" spans="1:12" ht="18">
       <c r="A13" s="1"/>
@@ -6188,11 +6185,11 @@
       <c r="I13" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="73" t="s">
+      <c r="J13" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
     </row>
     <row r="14" spans="1:12" ht="18">
       <c r="A14" s="1"/>
@@ -6218,11 +6215,11 @@
       <c r="I14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="73" t="s">
+      <c r="J14" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
     </row>
     <row r="15" spans="1:12" ht="18">
       <c r="A15" s="1"/>
@@ -6240,11 +6237,11 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="11"/>
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
       <c r="E16" s="17"/>
       <c r="F16" s="18"/>
       <c r="G16" s="17"/>
@@ -6256,12 +6253,12 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="21"/>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="76"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="75"/>
       <c r="F17" s="51" t="s">
         <v>21</v>
       </c>
@@ -6429,15 +6426,15 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="18">
-      <c r="A23" s="84"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="32"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="68" t="s">
+      <c r="C23" s="68"/>
+      <c r="D23" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="69"/>
+      <c r="E23" s="83"/>
       <c r="F23" s="63" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>25</v>
@@ -6452,7 +6449,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>28</v>
@@ -6574,11 +6571,11 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1"/>
-      <c r="B32" s="77" t="s">
+      <c r="B32" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -6589,12 +6586,12 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1"/>
-      <c r="B33" s="74" t="s">
+      <c r="B33" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="76"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="75"/>
       <c r="F33" s="51" t="s">
         <v>21</v>
       </c>
@@ -6734,7 +6731,7 @@
     <row r="38" spans="1:12" ht="18">
       <c r="A38" s="4"/>
       <c r="B38" s="13"/>
-      <c r="C38" s="85"/>
+      <c r="C38" s="70"/>
       <c r="D38" s="32"/>
       <c r="E38" s="29" t="s">
         <v>46</v>
@@ -6762,15 +6759,15 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="18">
-      <c r="A39" s="84"/>
+      <c r="A39" s="69"/>
       <c r="B39" s="32"/>
-      <c r="C39" s="83"/>
-      <c r="D39" s="68" t="s">
+      <c r="C39" s="68"/>
+      <c r="D39" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="69"/>
+      <c r="E39" s="83"/>
       <c r="F39" s="63" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G39" s="63" t="s">
         <v>25</v>
@@ -6785,7 +6782,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>28</v>
@@ -6807,11 +6804,11 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="1"/>
-      <c r="B41" s="77" t="s">
+      <c r="B41" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="77"/>
-      <c r="D41" s="77"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -6826,10 +6823,10 @@
       <c r="B42" s="50">
         <v>200</v>
       </c>
-      <c r="C42" s="68" t="s">
+      <c r="C42" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="D42" s="69"/>
+      <c r="D42" s="83"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -6844,10 +6841,10 @@
       <c r="B43" s="50">
         <v>401</v>
       </c>
-      <c r="C43" s="68" t="s">
+      <c r="C43" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="D43" s="69"/>
+      <c r="D43" s="83"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -6862,10 +6859,10 @@
       <c r="B44" s="50">
         <v>402</v>
       </c>
-      <c r="C44" s="68" t="s">
+      <c r="C44" s="82" t="s">
         <v>120</v>
       </c>
-      <c r="D44" s="69"/>
+      <c r="D44" s="83"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -6880,10 +6877,10 @@
       <c r="B45" s="39">
         <v>500</v>
       </c>
-      <c r="C45" s="70" t="s">
+      <c r="C45" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="D45" s="71"/>
+      <c r="D45" s="85"/>
       <c r="E45" s="34"/>
       <c r="F45" s="34"/>
       <c r="G45" s="34"/>
@@ -6894,6 +6891,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="J13:L13"/>
@@ -6908,12 +6911,6 @@
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D39:E39"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I13" r:id="rId1"/>
@@ -7014,15 +7011,15 @@
       <c r="B4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="69"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="83"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -7035,15 +7032,15 @@
       <c r="B5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="69"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="83"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -7056,15 +7053,15 @@
       <c r="B6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="69"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="83"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -7077,15 +7074,15 @@
       <c r="B7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="69"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="83"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -7150,19 +7147,19 @@
     </row>
     <row r="11" spans="1:15" ht="20" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="82"/>
+      <c r="C11" s="81"/>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -7191,11 +7188,11 @@
       <c r="I12" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="79" t="s">
+      <c r="J12" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="79"/>
-      <c r="L12" s="79"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -7224,11 +7221,11 @@
       <c r="I13" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="J13" s="73" t="s">
+      <c r="J13" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -7245,9 +7242,9 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -7271,11 +7268,11 @@
     </row>
     <row r="16" spans="1:15" s="19" customFormat="1" ht="20" customHeight="1">
       <c r="A16" s="11"/>
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
       <c r="E16" s="17"/>
       <c r="F16" s="18"/>
       <c r="G16" s="17"/>
@@ -7290,12 +7287,12 @@
     </row>
     <row r="17" spans="1:15" s="23" customFormat="1" ht="20" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="76"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="75"/>
       <c r="F17" s="60" t="s">
         <v>21</v>
       </c>
@@ -7620,11 +7617,11 @@
     </row>
     <row r="31" spans="1:15" ht="20" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="77" t="s">
+      <c r="B31" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="77"/>
-      <c r="D31" s="77"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -7639,12 +7636,12 @@
     </row>
     <row r="32" spans="1:15" ht="20" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="74" t="s">
+      <c r="B32" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="75"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="76"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="75"/>
       <c r="F32" s="60" t="s">
         <v>21</v>
       </c>
@@ -7848,11 +7845,11 @@
     </row>
     <row r="39" spans="1:15" ht="20" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="77" t="s">
+      <c r="B39" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="C39" s="77"/>
-      <c r="D39" s="77"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -7870,10 +7867,10 @@
       <c r="B40" s="59">
         <v>200</v>
       </c>
-      <c r="C40" s="68" t="s">
+      <c r="C40" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="69"/>
+      <c r="D40" s="83"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -7891,10 +7888,10 @@
       <c r="B41" s="59">
         <v>402</v>
       </c>
-      <c r="C41" s="68" t="s">
+      <c r="C41" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="D41" s="69"/>
+      <c r="D41" s="83"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -8810,22 +8807,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:E17"/>
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="C6:I6"/>
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I13" r:id="rId1" display="foo@mulodo.com"/>
@@ -8910,15 +8907,15 @@
       <c r="B4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="68" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="69"/>
+      <c r="C4" s="82" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="83"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -8928,15 +8925,15 @@
       <c r="B5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="68" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="69"/>
+      <c r="C5" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="83"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -8946,15 +8943,15 @@
       <c r="B6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="69"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="83"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -8964,15 +8961,15 @@
       <c r="B7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="69"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="83"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -9025,19 +9022,19 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1"/>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="82"/>
+      <c r="C11" s="81"/>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1"/>
@@ -9063,11 +9060,11 @@
       <c r="I12" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="79" t="s">
+      <c r="J12" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="79"/>
-      <c r="L12" s="79"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
     </row>
     <row r="13" spans="1:13" ht="18">
       <c r="A13" s="1"/>
@@ -9093,11 +9090,11 @@
       <c r="I13" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="73" t="s">
+      <c r="J13" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1"/>
@@ -9115,11 +9112,11 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="11"/>
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
       <c r="E15" s="17"/>
       <c r="F15" s="18"/>
       <c r="G15" s="17"/>
@@ -9131,13 +9128,13 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="21"/>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="76"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="75"/>
       <c r="G16" s="60" t="s">
         <v>21</v>
       </c>
@@ -9530,11 +9527,11 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="1"/>
-      <c r="B36" s="77" t="s">
+      <c r="B36" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="C36" s="77"/>
-      <c r="D36" s="77"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -9546,12 +9543,12 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="1"/>
-      <c r="B37" s="74" t="s">
+      <c r="B37" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="75"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="76"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="75"/>
       <c r="F37" s="60" t="s">
         <v>21</v>
       </c>
@@ -9734,11 +9731,11 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="1"/>
-      <c r="B44" s="77" t="s">
+      <c r="B44" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="C44" s="77"/>
-      <c r="D44" s="77"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -9753,10 +9750,10 @@
       <c r="B45" s="59">
         <v>200</v>
       </c>
-      <c r="C45" s="68" t="s">
+      <c r="C45" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="69"/>
+      <c r="D45" s="83"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -9771,10 +9768,10 @@
       <c r="B46" s="59">
         <v>401</v>
       </c>
-      <c r="C46" s="68" t="s">
+      <c r="C46" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="D46" s="69"/>
+      <c r="D46" s="83"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -9789,10 +9786,10 @@
       <c r="B47" s="59">
         <v>402</v>
       </c>
-      <c r="C47" s="68" t="s">
+      <c r="C47" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="D47" s="69"/>
+      <c r="D47" s="83"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -9807,10 +9804,10 @@
       <c r="B48" s="39">
         <v>500</v>
       </c>
-      <c r="C48" s="70" t="s">
+      <c r="C48" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="D48" s="71"/>
+      <c r="D48" s="85"/>
       <c r="E48" s="34"/>
       <c r="F48" s="34"/>
       <c r="G48" s="34"/>
@@ -9822,12 +9819,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="B11:C11"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="J13:L13"/>
@@ -9839,6 +9830,12 @@
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="C47:D47"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I13" r:id="rId1"/>
@@ -9859,7 +9856,7 @@
   <dimension ref="A1:O95"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:I6"/>
+      <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -9898,7 +9895,7 @@
     </row>
     <row r="2" spans="1:15" ht="20" customHeight="1">
       <c r="A2" s="49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>121</v>
@@ -9920,7 +9917,7 @@
     <row r="3" spans="1:15" ht="20" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="1"/>
@@ -9941,15 +9938,15 @@
       <c r="B4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="69"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="83"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -9962,15 +9959,15 @@
       <c r="B5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="68" t="s">
-        <v>143</v>
-      </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="69"/>
+      <c r="C5" s="82" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="83"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -9983,15 +9980,15 @@
       <c r="B6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="69"/>
+      <c r="C6" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="83"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -10004,15 +10001,15 @@
       <c r="B7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="69"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="83"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -10040,7 +10037,7 @@
     <row r="9" spans="1:15" ht="20" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="1"/>
@@ -10077,19 +10074,19 @@
     </row>
     <row r="11" spans="1:15" ht="20" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="82"/>
+      <c r="C11" s="81"/>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -10118,11 +10115,11 @@
       <c r="I12" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="79" t="s">
+      <c r="J12" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="79"/>
-      <c r="L12" s="79"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -10151,11 +10148,11 @@
       <c r="I13" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="J13" s="73" t="s">
+      <c r="J13" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -10164,10 +10161,10 @@
       <c r="A14" s="1"/>
       <c r="B14" s="43"/>
       <c r="C14" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>25</v>
@@ -10176,19 +10173,19 @@
         <v>40</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H14" s="5">
         <v>254</v>
       </c>
       <c r="I14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J14" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="J14" s="73" t="s">
-        <v>137</v>
-      </c>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -10212,11 +10209,11 @@
     </row>
     <row r="16" spans="1:15" s="19" customFormat="1" ht="20" customHeight="1">
       <c r="A16" s="11"/>
-      <c r="B16" s="80" t="s">
-        <v>130</v>
-      </c>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
+      <c r="B16" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
       <c r="E16" s="17"/>
       <c r="F16" s="18"/>
       <c r="G16" s="17"/>
@@ -10231,12 +10228,12 @@
     </row>
     <row r="17" spans="1:15" s="23" customFormat="1" ht="20" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="76"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="75"/>
       <c r="F17" s="65" t="s">
         <v>21</v>
       </c>
@@ -10561,11 +10558,11 @@
     </row>
     <row r="31" spans="1:15" ht="20" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="77" t="s">
-        <v>131</v>
-      </c>
-      <c r="C31" s="77"/>
-      <c r="D31" s="77"/>
+      <c r="B31" s="76" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -10580,12 +10577,12 @@
     </row>
     <row r="32" spans="1:15" ht="20" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="74" t="s">
+      <c r="B32" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="75"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="76"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="75"/>
       <c r="F32" s="65" t="s">
         <v>21</v>
       </c>
@@ -10731,7 +10728,7 @@
         <v>3</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -10789,11 +10786,11 @@
     </row>
     <row r="39" spans="1:15" ht="20" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="77" t="s">
-        <v>132</v>
-      </c>
-      <c r="C39" s="77"/>
-      <c r="D39" s="77"/>
+      <c r="B39" s="76" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -10811,10 +10808,10 @@
       <c r="B40" s="64">
         <v>200</v>
       </c>
-      <c r="C40" s="68" t="s">
+      <c r="C40" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="D40" s="69"/>
+      <c r="D40" s="83"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -10833,7 +10830,7 @@
         <v>401</v>
       </c>
       <c r="C41" s="66" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D41" s="67"/>
       <c r="E41" s="1"/>
@@ -10853,10 +10850,10 @@
       <c r="B42" s="64">
         <v>402</v>
       </c>
-      <c r="C42" s="68" t="s">
+      <c r="C42" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="D42" s="69"/>
+      <c r="D42" s="83"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -11772,6 +11769,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="C40:D40"/>
@@ -11782,12 +11785,6 @@
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B31:D31"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="J11:L11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I13" r:id="rId1" display="foo@mulodo.com"/>
@@ -11808,7 +11805,7 @@
   <dimension ref="A1:O94"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -11847,10 +11844,10 @@
     </row>
     <row r="2" spans="1:15" ht="20" customHeight="1">
       <c r="A2" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>144</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>145</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -11869,7 +11866,7 @@
     <row r="3" spans="1:15" ht="20" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="1"/>
@@ -11890,15 +11887,15 @@
       <c r="B4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="68" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="69"/>
+      <c r="C4" s="82" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="83"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -11911,15 +11908,15 @@
       <c r="B5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="68" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="69"/>
+      <c r="C5" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="83"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -11932,15 +11929,15 @@
       <c r="B6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="69"/>
+      <c r="C6" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="83"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -11953,15 +11950,15 @@
       <c r="B7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="69"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="83"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -11989,7 +11986,7 @@
     <row r="9" spans="1:15" ht="20" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="1"/>
@@ -12026,19 +12023,19 @@
     </row>
     <row r="11" spans="1:15" ht="20" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="82"/>
+      <c r="C11" s="81"/>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -12067,11 +12064,11 @@
       <c r="I12" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="79" t="s">
+      <c r="J12" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="79"/>
-      <c r="L12" s="79"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -12100,11 +12097,11 @@
       <c r="I13" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="J13" s="73" t="s">
+      <c r="J13" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -12128,11 +12125,11 @@
     </row>
     <row r="15" spans="1:15" s="19" customFormat="1" ht="20" customHeight="1">
       <c r="A15" s="11"/>
-      <c r="B15" s="80" t="s">
-        <v>148</v>
-      </c>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
+      <c r="B15" s="79" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
       <c r="E15" s="17"/>
       <c r="F15" s="18"/>
       <c r="G15" s="17"/>
@@ -12147,12 +12144,12 @@
     </row>
     <row r="16" spans="1:15" s="23" customFormat="1" ht="20" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="76"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="75"/>
       <c r="F16" s="65" t="s">
         <v>21</v>
       </c>
@@ -12477,11 +12474,11 @@
     </row>
     <row r="30" spans="1:15" ht="20" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="77" t="s">
-        <v>149</v>
-      </c>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
+      <c r="B30" s="76" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -12496,12 +12493,12 @@
     </row>
     <row r="31" spans="1:15" ht="20" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="74" t="s">
+      <c r="B31" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="75"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="76"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="75"/>
       <c r="F31" s="65" t="s">
         <v>21</v>
       </c>
@@ -12647,7 +12644,7 @@
         <v>3</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -12705,11 +12702,11 @@
     </row>
     <row r="38" spans="1:15" ht="20" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="77" t="s">
-        <v>150</v>
-      </c>
-      <c r="C38" s="77"/>
-      <c r="D38" s="77"/>
+      <c r="B38" s="76" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -12727,10 +12724,10 @@
       <c r="B39" s="64">
         <v>200</v>
       </c>
-      <c r="C39" s="68" t="s">
+      <c r="C39" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="69"/>
+      <c r="D39" s="83"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -12749,7 +12746,7 @@
         <v>401</v>
       </c>
       <c r="C40" s="66" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D40" s="67"/>
       <c r="E40" s="1"/>
@@ -12769,10 +12766,10 @@
       <c r="B41" s="64">
         <v>402</v>
       </c>
-      <c r="C41" s="68" t="s">
+      <c r="C41" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="D41" s="69"/>
+      <c r="D41" s="83"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -13688,6 +13685,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="C39:D39"/>
@@ -13697,12 +13700,6 @@
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B30:D30"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="J11:L11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I13" r:id="rId1" display="foo@mulodo.com"/>
